--- a/REGULAR/ENMACINO, LEILA ANGCAYA.xlsx
+++ b/REGULAR/ENMACINO, LEILA ANGCAYA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A89DB31-8F0F-47FB-B5BB-6DAC5F08CD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3814CFDA-72FF-4C49-A8EE-3444C505B15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="412">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1265,6 +1265,12 @@
   </si>
   <si>
     <t>11/23,28</t>
+  </si>
+  <si>
+    <t>4/17,24,25/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1641,6 +1647,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3666,7 +3675,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K564" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K624" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -4042,12 +4051,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K564"/>
+  <dimension ref="A2:K624"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A555" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="B565" sqref="B565"/>
+      <selection pane="bottomLeft" activeCell="D568" sqref="D568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4069,62 +4078,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -4150,18 +4159,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4208,7 +4217,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>23.847999999999836</v>
+        <v>23.347999999999836</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4218,7 +4227,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>127.25</v>
+        <v>128.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4315,7 +4324,6 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <f>EDATE(A11,1)</f>
         <v>35827</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -4360,7 +4368,6 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
-        <f>EDATE(A14,1)</f>
         <v>35855</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -4451,7 +4458,6 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <f>EDATE(A16,1)</f>
         <v>35886</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -4498,7 +4504,6 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <f>EDATE(A20,1)</f>
         <v>35916</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -4545,7 +4550,6 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <f>EDATE(A22,1)</f>
         <v>35947</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -4570,7 +4574,6 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <f t="shared" ref="A25:A129" si="0">EDATE(A24,1)</f>
         <v>35977</v>
       </c>
       <c r="B25" s="20"/>
@@ -4591,7 +4594,6 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <f t="shared" si="0"/>
         <v>36008</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -4616,7 +4618,6 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <f t="shared" si="0"/>
         <v>36039</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -4663,7 +4664,6 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <f>EDATE(A27,1)</f>
         <v>36069</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -4688,7 +4688,6 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <f t="shared" si="0"/>
         <v>36100</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -4757,7 +4756,6 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <f>EDATE(A30,1)</f>
         <v>36130</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -4844,7 +4842,6 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <f>EDATE(A33,1)</f>
         <v>36161</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -4869,7 +4866,6 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <f t="shared" si="0"/>
         <v>36192</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -4894,7 +4890,6 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <f t="shared" si="0"/>
         <v>36220</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -4919,7 +4914,6 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <f t="shared" si="0"/>
         <v>36251</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -4966,7 +4960,6 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <f>EDATE(A40,1)</f>
         <v>36281</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -5033,7 +5026,6 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <f>EDATE(A42,1)</f>
         <v>36312</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -5058,7 +5050,6 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <f t="shared" si="0"/>
         <v>36342</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -5083,7 +5074,6 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <f t="shared" si="0"/>
         <v>36373</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -5110,7 +5100,6 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <f t="shared" si="0"/>
         <v>36404</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -5135,7 +5124,6 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <f t="shared" si="0"/>
         <v>36434</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -5160,7 +5148,6 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <f t="shared" si="0"/>
         <v>36465</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -5185,7 +5172,6 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <f t="shared" si="0"/>
         <v>36495</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -5294,7 +5280,6 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <f>EDATE(A51,1)</f>
         <v>36526</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -5319,7 +5304,6 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <f t="shared" si="0"/>
         <v>36557</v>
       </c>
       <c r="B57" s="20" t="s">
@@ -5344,7 +5328,6 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <f t="shared" si="0"/>
         <v>36586</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -5391,7 +5374,6 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <f>EDATE(A58,1)</f>
         <v>36617</v>
       </c>
       <c r="B60" s="20" t="s">
@@ -5438,7 +5420,6 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <f>EDATE(A60,1)</f>
         <v>36647</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -5485,7 +5466,6 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <f>EDATE(A62,1)</f>
         <v>36678</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -5510,7 +5490,6 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <f t="shared" si="0"/>
         <v>36708</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -5577,7 +5556,6 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <f>EDATE(A65,1)</f>
         <v>36739</v>
       </c>
       <c r="B68" s="20" t="s">
@@ -5624,7 +5602,6 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <f>EDATE(A68,1)</f>
         <v>36770</v>
       </c>
       <c r="B70" s="20" t="s">
@@ -5649,7 +5626,6 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <f t="shared" si="0"/>
         <v>36800</v>
       </c>
       <c r="B71" s="20" t="s">
@@ -5696,7 +5672,6 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <f>EDATE(A71,1)</f>
         <v>36831</v>
       </c>
       <c r="B73" s="20" t="s">
@@ -5763,7 +5738,6 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <f>EDATE(A73,1)</f>
         <v>36861</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -5828,7 +5802,6 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <f>EDATE(A76,1)</f>
         <v>36892</v>
       </c>
       <c r="B79" s="20" t="s">
@@ -5853,7 +5826,6 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <f t="shared" si="0"/>
         <v>36923</v>
       </c>
       <c r="B80" s="20" t="s">
@@ -5900,7 +5872,6 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <f>EDATE(A80,1)</f>
         <v>36951</v>
       </c>
       <c r="B82" s="20" t="s">
@@ -5969,7 +5940,6 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <f>EDATE(A82,1)</f>
         <v>36982</v>
       </c>
       <c r="B85" s="20" t="s">
@@ -6016,7 +5986,6 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <f>EDATE(A85,1)</f>
         <v>37012</v>
       </c>
       <c r="B87" s="20"/>
@@ -6037,7 +6006,6 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <f t="shared" si="0"/>
         <v>37043</v>
       </c>
       <c r="B88" s="20" t="s">
@@ -6084,7 +6052,6 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <f>EDATE(A88,1)</f>
         <v>37073</v>
       </c>
       <c r="B90" s="20" t="s">
@@ -6129,7 +6096,6 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <f>EDATE(A90,1)</f>
         <v>37104</v>
       </c>
       <c r="B92" s="20" t="s">
@@ -6176,7 +6142,6 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <f>EDATE(A92,1)</f>
         <v>37135</v>
       </c>
       <c r="B94" s="20" t="s">
@@ -6201,7 +6166,6 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <f t="shared" si="0"/>
         <v>37165</v>
       </c>
       <c r="B95" s="20" t="s">
@@ -6226,7 +6190,6 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <f t="shared" si="0"/>
         <v>37196</v>
       </c>
       <c r="B96" s="20" t="s">
@@ -6339,7 +6302,6 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <f>EDATE(A96,1)</f>
         <v>37226</v>
       </c>
       <c r="B101" s="20" t="s">
@@ -6382,7 +6344,6 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <f>EDATE(A101,1)</f>
         <v>37257</v>
       </c>
       <c r="B103" s="20" t="s">
@@ -6407,7 +6368,6 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <f t="shared" si="0"/>
         <v>37288</v>
       </c>
       <c r="B104" s="20" t="s">
@@ -6474,7 +6434,6 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <f>EDATE(A104,1)</f>
         <v>37316</v>
       </c>
       <c r="B107" s="20"/>
@@ -6495,7 +6454,6 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <f t="shared" si="0"/>
         <v>37347</v>
       </c>
       <c r="B108" s="20" t="s">
@@ -6520,7 +6478,6 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <f t="shared" si="0"/>
         <v>37377</v>
       </c>
       <c r="B109" s="20" t="s">
@@ -6589,7 +6546,6 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <f>EDATE(A109,1)</f>
         <v>37408</v>
       </c>
       <c r="B112" s="20"/>
@@ -6610,7 +6566,6 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <f t="shared" si="0"/>
         <v>37438</v>
       </c>
       <c r="B113" s="20" t="s">
@@ -6635,7 +6590,6 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <f t="shared" si="0"/>
         <v>37469</v>
       </c>
       <c r="B114" s="20" t="s">
@@ -6682,7 +6636,6 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <f>EDATE(A114,1)</f>
         <v>37500</v>
       </c>
       <c r="B116" s="20" t="s">
@@ -6709,7 +6662,6 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <f t="shared" si="0"/>
         <v>37530</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -6734,7 +6686,6 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <f t="shared" si="0"/>
         <v>37561</v>
       </c>
       <c r="B118" s="20" t="s">
@@ -6761,7 +6712,6 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <f t="shared" si="0"/>
         <v>37591</v>
       </c>
       <c r="B119" s="20" t="s">
@@ -6824,7 +6774,6 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <f>EDATE(A119,1)</f>
         <v>37622</v>
       </c>
       <c r="B122" s="20" t="s">
@@ -6869,7 +6818,6 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <f>EDATE(A122,1)</f>
         <v>37653</v>
       </c>
       <c r="B124" s="20"/>
@@ -6890,7 +6838,6 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <f t="shared" si="0"/>
         <v>37681</v>
       </c>
       <c r="B125" s="20" t="s">
@@ -6937,7 +6884,6 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <f>EDATE(A125,1)</f>
         <v>37712</v>
       </c>
       <c r="B127" s="20" t="s">
@@ -6962,7 +6908,6 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <f t="shared" si="0"/>
         <v>37742</v>
       </c>
       <c r="B128" s="20" t="s">
@@ -6987,7 +6932,6 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <f t="shared" si="0"/>
         <v>37773</v>
       </c>
       <c r="B129" s="20" t="s">
@@ -7014,7 +6958,6 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <f t="shared" ref="A130:A203" si="1">EDATE(A129,1)</f>
         <v>37803</v>
       </c>
       <c r="B130" s="20" t="s">
@@ -7059,7 +7002,6 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <f>EDATE(A130,1)</f>
         <v>37834</v>
       </c>
       <c r="B132" s="20" t="s">
@@ -7084,7 +7026,6 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <f t="shared" si="1"/>
         <v>37865</v>
       </c>
       <c r="B133" s="20" t="s">
@@ -7171,7 +7112,6 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <f>EDATE(A133,1)</f>
         <v>37895</v>
       </c>
       <c r="B137" s="20" t="s">
@@ -7218,7 +7158,6 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <f>EDATE(A137,1)</f>
         <v>37926</v>
       </c>
       <c r="B139" s="20" t="s">
@@ -7243,7 +7182,6 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <f t="shared" si="1"/>
         <v>37956</v>
       </c>
       <c r="B140" s="20" t="s">
@@ -7308,7 +7246,6 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <f>EDATE(A140,1)</f>
         <v>37987</v>
       </c>
       <c r="B143" s="20"/>
@@ -7329,7 +7266,6 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <f t="shared" si="1"/>
         <v>38018</v>
       </c>
       <c r="B144" s="20" t="s">
@@ -7376,7 +7312,6 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <f>EDATE(A144,1)</f>
         <v>38047</v>
       </c>
       <c r="B146" s="20" t="s">
@@ -7421,7 +7356,6 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <f>EDATE(A146,1)</f>
         <v>38078</v>
       </c>
       <c r="B148" s="20" t="s">
@@ -7446,7 +7380,6 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <f t="shared" si="1"/>
         <v>38108</v>
       </c>
       <c r="B149" s="20" t="s">
@@ -7471,7 +7404,6 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <f t="shared" si="1"/>
         <v>38139</v>
       </c>
       <c r="B150" s="20" t="s">
@@ -7496,7 +7428,6 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <f t="shared" si="1"/>
         <v>38169</v>
       </c>
       <c r="B151" s="20" t="s">
@@ -7565,7 +7496,6 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <f>EDATE(A151,1)</f>
         <v>38200</v>
       </c>
       <c r="B154" s="20" t="s">
@@ -7590,7 +7520,6 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <f t="shared" si="1"/>
         <v>38231</v>
       </c>
       <c r="B155" s="20" t="s">
@@ -7615,7 +7544,6 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
-        <f t="shared" si="1"/>
         <v>38261</v>
       </c>
       <c r="B156" s="20" t="s">
@@ -7660,7 +7588,6 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <f>EDATE(A156,1)</f>
         <v>38292</v>
       </c>
       <c r="B158" s="20" t="s">
@@ -7685,7 +7612,6 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <f t="shared" si="1"/>
         <v>38322</v>
       </c>
       <c r="B159" s="20" t="s">
@@ -7750,7 +7676,6 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <f>EDATE(A159,1)</f>
         <v>38353</v>
       </c>
       <c r="B162" s="20" t="s">
@@ -7775,7 +7700,6 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
-        <f t="shared" si="1"/>
         <v>38384</v>
       </c>
       <c r="B163" s="20" t="s">
@@ -7800,7 +7724,6 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
-        <f t="shared" si="1"/>
         <v>38412</v>
       </c>
       <c r="B164" s="20" t="s">
@@ -7825,7 +7748,6 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
-        <f t="shared" si="1"/>
         <v>38443</v>
       </c>
       <c r="B165" s="20" t="s">
@@ -7872,7 +7794,6 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <f>EDATE(A165,1)</f>
         <v>38473</v>
       </c>
       <c r="B167" s="20" t="s">
@@ -7985,7 +7906,6 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <f>EDATE(A167,1)</f>
         <v>38504</v>
       </c>
       <c r="B172" s="20" t="s">
@@ -8096,7 +8016,6 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <f>EDATE(A172,1)</f>
         <v>38534</v>
       </c>
       <c r="B177" s="20" t="s">
@@ -8165,7 +8084,6 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <f>EDATE(A177,1)</f>
         <v>38565</v>
       </c>
       <c r="B180" s="20" t="s">
@@ -8190,7 +8108,6 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <f t="shared" si="1"/>
         <v>38596</v>
       </c>
       <c r="B181" s="20" t="s">
@@ -8281,7 +8198,6 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
-        <f>EDATE(A181,1)</f>
         <v>38626</v>
       </c>
       <c r="B185" s="20" t="s">
@@ -8350,7 +8266,6 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
-        <f>EDATE(A185,1)</f>
         <v>38657</v>
       </c>
       <c r="B188" s="20" t="s">
@@ -8375,7 +8290,6 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
-        <f t="shared" si="1"/>
         <v>38687</v>
       </c>
       <c r="B189" s="20"/>
@@ -8414,7 +8328,6 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
-        <f>EDATE(A189,1)</f>
         <v>38718</v>
       </c>
       <c r="B191" s="20" t="s">
@@ -8527,7 +8440,6 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <f>EDATE(A191,1)</f>
         <v>38749</v>
       </c>
       <c r="B196" s="20" t="s">
@@ -8554,7 +8466,6 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
-        <f t="shared" si="1"/>
         <v>38777</v>
       </c>
       <c r="B197" s="20" t="s">
@@ -8641,7 +8552,6 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
-        <f>EDATE(A197,1)</f>
         <v>38808</v>
       </c>
       <c r="B201" s="20" t="s">
@@ -8666,7 +8576,6 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
-        <f t="shared" si="1"/>
         <v>38838</v>
       </c>
       <c r="B202" s="20" t="s">
@@ -8691,7 +8600,6 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
-        <f t="shared" si="1"/>
         <v>38869</v>
       </c>
       <c r="B203" s="20" t="s">
@@ -8716,7 +8624,6 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <f>EDATE(A203,1)</f>
         <v>38899</v>
       </c>
       <c r="B204" s="20" t="s">
@@ -8741,7 +8648,6 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
-        <f t="shared" ref="A205:A282" si="2">EDATE(A204,1)</f>
         <v>38930</v>
       </c>
       <c r="B205" s="20" t="s">
@@ -8852,7 +8758,6 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <f>EDATE(A205,1)</f>
         <v>38961</v>
       </c>
       <c r="B210" s="20" t="s">
@@ -8877,7 +8782,6 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <f t="shared" si="2"/>
         <v>38991</v>
       </c>
       <c r="B211" s="20" t="s">
@@ -8922,7 +8826,6 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
-        <f>EDATE(A211,1)</f>
         <v>39022</v>
       </c>
       <c r="B213" s="20" t="s">
@@ -9033,7 +8936,6 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
-        <f>EDATE(A213,1)</f>
         <v>39052</v>
       </c>
       <c r="B218" s="20" t="s">
@@ -9076,7 +8978,6 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
-        <f>EDATE(A218,1)</f>
         <v>39083</v>
       </c>
       <c r="B220" s="20" t="s">
@@ -9101,7 +9002,6 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
-        <f t="shared" si="2"/>
         <v>39114</v>
       </c>
       <c r="B221" s="20" t="s">
@@ -9126,7 +9026,6 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
-        <f t="shared" si="2"/>
         <v>39142</v>
       </c>
       <c r="B222" s="20" t="s">
@@ -9171,7 +9070,6 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
-        <f>EDATE(A222,1)</f>
         <v>39173</v>
       </c>
       <c r="B224" s="20" t="s">
@@ -9238,7 +9136,6 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
-        <f>EDATE(A224,1)</f>
         <v>39203</v>
       </c>
       <c r="B227" s="20" t="s">
@@ -9263,7 +9160,6 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
-        <f t="shared" si="2"/>
         <v>39234</v>
       </c>
       <c r="B228" s="20" t="s">
@@ -9288,7 +9184,6 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
-        <f t="shared" si="2"/>
         <v>39264</v>
       </c>
       <c r="B229" s="20" t="s">
@@ -9379,7 +9274,6 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
-        <f>EDATE(A229,1)</f>
         <v>39295</v>
       </c>
       <c r="B233" s="20" t="s">
@@ -9404,7 +9298,6 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
-        <f t="shared" si="2"/>
         <v>39326</v>
       </c>
       <c r="B234" s="20" t="s">
@@ -9429,7 +9322,6 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
-        <f t="shared" si="2"/>
         <v>39356</v>
       </c>
       <c r="B235" s="20" t="s">
@@ -9476,7 +9368,6 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
-        <f>EDATE(A235,1)</f>
         <v>39387</v>
       </c>
       <c r="B237" s="20" t="s">
@@ -9501,7 +9392,6 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
-        <f t="shared" si="2"/>
         <v>39417</v>
       </c>
       <c r="B238" s="15" t="s">
@@ -9533,7 +9423,7 @@
       <c r="D239" s="42"/>
       <c r="E239" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>23.847999999999836</v>
+        <v>23.347999999999836</v>
       </c>
       <c r="F239" s="15"/>
       <c r="G239" s="41" t="str">
@@ -9543,14 +9433,13 @@
       <c r="H239" s="42"/>
       <c r="I239" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>127.25</v>
+        <v>128.75</v>
       </c>
       <c r="J239" s="12"/>
       <c r="K239" s="15"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
-        <f>EDATE(A238,1)</f>
         <v>39448</v>
       </c>
       <c r="B240" s="20" t="s">
@@ -9575,7 +9464,6 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
-        <f t="shared" si="2"/>
         <v>39479</v>
       </c>
       <c r="B241" s="20" t="s">
@@ -9600,7 +9488,6 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
-        <f t="shared" si="2"/>
         <v>39508</v>
       </c>
       <c r="B242" s="20" t="s">
@@ -9625,7 +9512,6 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
-        <f t="shared" si="2"/>
         <v>39539</v>
       </c>
       <c r="B243" s="20" t="s">
@@ -9650,7 +9536,6 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
-        <f t="shared" si="2"/>
         <v>39569</v>
       </c>
       <c r="B244" s="20" t="s">
@@ -9675,7 +9560,6 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
-        <f t="shared" si="2"/>
         <v>39600</v>
       </c>
       <c r="B245" s="20" t="s">
@@ -9700,7 +9584,6 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
-        <f t="shared" si="2"/>
         <v>39630</v>
       </c>
       <c r="B246" s="20" t="s">
@@ -9725,7 +9608,6 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
-        <f t="shared" si="2"/>
         <v>39661</v>
       </c>
       <c r="B247" s="20" t="s">
@@ -9792,7 +9674,6 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
-        <f>EDATE(A247,1)</f>
         <v>39692</v>
       </c>
       <c r="B250" s="20" t="s">
@@ -9817,7 +9698,6 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
-        <f t="shared" si="2"/>
         <v>39722</v>
       </c>
       <c r="B251" s="20" t="s">
@@ -9842,7 +9722,6 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
-        <f t="shared" si="2"/>
         <v>39753</v>
       </c>
       <c r="B252" s="20" t="s">
@@ -9867,7 +9746,6 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
-        <f t="shared" si="2"/>
         <v>39783</v>
       </c>
       <c r="B253" s="20" t="s">
@@ -9910,7 +9788,6 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
-        <f>EDATE(A253,1)</f>
         <v>39814</v>
       </c>
       <c r="B255" s="20" t="s">
@@ -9935,7 +9812,6 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
-        <f t="shared" si="2"/>
         <v>39845</v>
       </c>
       <c r="B256" s="20" t="s">
@@ -9960,7 +9836,6 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
-        <f t="shared" si="2"/>
         <v>39873</v>
       </c>
       <c r="B257" s="20" t="s">
@@ -9985,7 +9860,6 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
-        <f t="shared" si="2"/>
         <v>39904</v>
       </c>
       <c r="B258" s="20" t="s">
@@ -10032,7 +9906,6 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
-        <f>EDATE(A258,1)</f>
         <v>39934</v>
       </c>
       <c r="B260" s="20" t="s">
@@ -10079,7 +9952,6 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
-        <f>EDATE(A260,1)</f>
         <v>39965</v>
       </c>
       <c r="B262" s="20" t="s">
@@ -10146,7 +10018,6 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
-        <f>EDATE(A262,1)</f>
         <v>39995</v>
       </c>
       <c r="B265" s="20" t="s">
@@ -10193,7 +10064,6 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
-        <f>EDATE(A265,1)</f>
         <v>40026</v>
       </c>
       <c r="B267" s="20" t="s">
@@ -10218,7 +10088,6 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
-        <f t="shared" si="2"/>
         <v>40057</v>
       </c>
       <c r="B268" s="20" t="s">
@@ -10243,7 +10112,6 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
-        <f t="shared" si="2"/>
         <v>40087</v>
       </c>
       <c r="B269" s="20" t="s">
@@ -10290,7 +10158,6 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
-        <f>EDATE(A269,1)</f>
         <v>40118</v>
       </c>
       <c r="B271" s="20" t="s">
@@ -10335,7 +10202,6 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
-        <f>EDATE(A271,1)</f>
         <v>40148</v>
       </c>
       <c r="B273" s="20" t="s">
@@ -10378,7 +10244,6 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
-        <f>EDATE(A273,1)</f>
         <v>40179</v>
       </c>
       <c r="B275" s="20" t="s">
@@ -10403,7 +10268,6 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
-        <f t="shared" si="2"/>
         <v>40210</v>
       </c>
       <c r="B276" s="20" t="s">
@@ -10514,7 +10378,6 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
-        <f>EDATE(A276,1)</f>
         <v>40238</v>
       </c>
       <c r="B281" s="20" t="s">
@@ -10539,7 +10402,6 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
-        <f t="shared" si="2"/>
         <v>40269</v>
       </c>
       <c r="B282" s="20" t="s">
@@ -10566,7 +10428,6 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
-        <f>EDATE(A282,1)</f>
         <v>40299</v>
       </c>
       <c r="B283" s="20" t="s">
@@ -10635,7 +10496,6 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
-        <f>EDATE(A283,1)</f>
         <v>40330</v>
       </c>
       <c r="B286" s="20" t="s">
@@ -10682,7 +10542,6 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
-        <f>EDATE(A286,1)</f>
         <v>40360</v>
       </c>
       <c r="B288" s="20" t="s">
@@ -10729,7 +10588,6 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
-        <f>EDATE(A288,1)</f>
         <v>40391</v>
       </c>
       <c r="B290" s="20" t="s">
@@ -10776,7 +10634,6 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
-        <f>EDATE(A290,1)</f>
         <v>40422</v>
       </c>
       <c r="B292" s="20" t="s">
@@ -10823,7 +10680,6 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
-        <f>EDATE(A292,1)</f>
         <v>40452</v>
       </c>
       <c r="B294" s="20" t="s">
@@ -10848,7 +10704,6 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
-        <f t="shared" ref="A295:A356" si="3">EDATE(A294,1)</f>
         <v>40483</v>
       </c>
       <c r="B295" s="20" t="s">
@@ -10873,7 +10728,6 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
-        <f t="shared" si="3"/>
         <v>40513</v>
       </c>
       <c r="B296" s="20" t="s">
@@ -10936,7 +10790,6 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
-        <f>EDATE(A296,1)</f>
         <v>40544</v>
       </c>
       <c r="B299" s="20" t="s">
@@ -11003,7 +10856,6 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
-        <f>EDATE(A299,1)</f>
         <v>40575</v>
       </c>
       <c r="B302" s="20" t="s">
@@ -11028,7 +10880,6 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
-        <f t="shared" si="3"/>
         <v>40603</v>
       </c>
       <c r="B303" s="20" t="s">
@@ -11053,7 +10904,6 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
-        <f t="shared" si="3"/>
         <v>40634</v>
       </c>
       <c r="B304" s="20" t="s">
@@ -11078,7 +10928,6 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
-        <f t="shared" si="3"/>
         <v>40664</v>
       </c>
       <c r="B305" s="20" t="s">
@@ -11125,7 +10974,6 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
-        <f>EDATE(A305,1)</f>
         <v>40695</v>
       </c>
       <c r="B307" s="20" t="s">
@@ -11170,7 +11018,6 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
-        <f>EDATE(A307,1)</f>
         <v>40725</v>
       </c>
       <c r="B309" s="20" t="s">
@@ -11197,7 +11044,6 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
-        <f t="shared" si="3"/>
         <v>40756</v>
       </c>
       <c r="B310" s="20" t="s">
@@ -11222,7 +11068,6 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
-        <f t="shared" si="3"/>
         <v>40787</v>
       </c>
       <c r="B311" s="20" t="s">
@@ -11247,7 +11092,6 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
-        <f t="shared" si="3"/>
         <v>40817</v>
       </c>
       <c r="B312" s="20" t="s">
@@ -11272,7 +11116,6 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
-        <f t="shared" si="3"/>
         <v>40848</v>
       </c>
       <c r="B313" s="20" t="s">
@@ -11319,7 +11162,6 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
-        <f>EDATE(A313,1)</f>
         <v>40878</v>
       </c>
       <c r="B315" s="20" t="s">
@@ -11384,7 +11226,6 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
-        <f>EDATE(A315,1)</f>
         <v>40909</v>
       </c>
       <c r="B318" s="20" t="s">
@@ -11429,7 +11270,6 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
-        <f>EDATE(A318,1)</f>
         <v>40940</v>
       </c>
       <c r="B320" s="20" t="s">
@@ -11454,7 +11294,6 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
-        <f t="shared" si="3"/>
         <v>40969</v>
       </c>
       <c r="B321" s="20" t="s">
@@ -11501,7 +11340,6 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
-        <f>EDATE(A321,1)</f>
         <v>41000</v>
       </c>
       <c r="B323" s="20" t="s">
@@ -11526,7 +11364,6 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
-        <f t="shared" si="3"/>
         <v>41030</v>
       </c>
       <c r="B324" s="20" t="s">
@@ -11595,7 +11432,6 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
-        <f>EDATE(A324,1)</f>
         <v>41061</v>
       </c>
       <c r="B327" s="20" t="s">
@@ -11706,7 +11542,6 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
-        <f>EDATE(A327,1)</f>
         <v>41091</v>
       </c>
       <c r="B332" s="20"/>
@@ -11727,7 +11562,6 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
-        <f t="shared" si="3"/>
         <v>41122</v>
       </c>
       <c r="B333" s="20" t="s">
@@ -11774,7 +11608,6 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
-        <f>EDATE(A333,1)</f>
         <v>41153</v>
       </c>
       <c r="B335" s="20" t="s">
@@ -11843,7 +11676,6 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
-        <f>EDATE(A335,1)</f>
         <v>41183</v>
       </c>
       <c r="B338" s="20" t="s">
@@ -11888,7 +11720,6 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
-        <f>EDATE(A338,1)</f>
         <v>41214</v>
       </c>
       <c r="B340" s="20" t="s">
@@ -11913,7 +11744,6 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
-        <f t="shared" si="3"/>
         <v>41244</v>
       </c>
       <c r="B341" s="20" t="s">
@@ -12020,7 +11850,6 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
-        <f>EDATE(A341,1)</f>
         <v>41275</v>
       </c>
       <c r="B346" s="20"/>
@@ -12041,7 +11870,6 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
-        <f t="shared" si="3"/>
         <v>41306</v>
       </c>
       <c r="B347" s="20" t="s">
@@ -12066,7 +11894,6 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
-        <f t="shared" si="3"/>
         <v>41334</v>
       </c>
       <c r="B348" s="20" t="s">
@@ -12113,7 +11940,6 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
-        <f>EDATE(A348,1)</f>
         <v>41365</v>
       </c>
       <c r="B350" s="20" t="s">
@@ -12138,7 +11964,6 @@
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
-        <f t="shared" si="3"/>
         <v>41395</v>
       </c>
       <c r="B351" s="20" t="s">
@@ -12163,7 +11988,6 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
-        <f t="shared" si="3"/>
         <v>41426</v>
       </c>
       <c r="B352" s="20" t="s">
@@ -12230,7 +12054,6 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
-        <f>EDATE(A352,1)</f>
         <v>41456</v>
       </c>
       <c r="B355" s="20" t="s">
@@ -12255,7 +12078,6 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
-        <f t="shared" si="3"/>
         <v>41487</v>
       </c>
       <c r="B356" s="20" t="s">
@@ -12320,7 +12142,6 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
-        <f>EDATE(A356,1)</f>
         <v>41518</v>
       </c>
       <c r="B359" s="20"/>
@@ -12341,7 +12162,6 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
-        <f t="shared" ref="A360:A367" si="4">EDATE(A359,1)</f>
         <v>41548</v>
       </c>
       <c r="B360" s="20" t="s">
@@ -12366,7 +12186,6 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
-        <f t="shared" si="4"/>
         <v>41579</v>
       </c>
       <c r="B361" s="20" t="s">
@@ -12391,7 +12210,6 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
-        <f t="shared" si="4"/>
         <v>41609</v>
       </c>
       <c r="B362" s="20" t="s">
@@ -12454,7 +12272,6 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
-        <f>EDATE(A362,1)</f>
         <v>41640</v>
       </c>
       <c r="B365" s="20" t="s">
@@ -12479,7 +12296,6 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
-        <f t="shared" si="4"/>
         <v>41671</v>
       </c>
       <c r="B366" s="20" t="s">
@@ -12506,7 +12322,6 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
-        <f t="shared" si="4"/>
         <v>41699</v>
       </c>
       <c r="B367" s="20" t="s">
@@ -12575,7 +12390,6 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
-        <f>EDATE(A367,1)</f>
         <v>41730</v>
       </c>
       <c r="B370" s="20" t="s">
@@ -12706,7 +12520,6 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
-        <f>EDATE(A370,1)</f>
         <v>41760</v>
       </c>
       <c r="B376" s="20" t="s">
@@ -12731,7 +12544,6 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
-        <f t="shared" ref="A377:A378" si="5">EDATE(A376,1)</f>
         <v>41791</v>
       </c>
       <c r="B377" s="20" t="s">
@@ -12756,7 +12568,6 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
-        <f t="shared" si="5"/>
         <v>41821</v>
       </c>
       <c r="B378" s="20" t="s">
@@ -12825,7 +12636,6 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
-        <f>EDATE(A378,1)</f>
         <v>41852</v>
       </c>
       <c r="B381" s="20" t="s">
@@ -12872,7 +12682,6 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
-        <f>EDATE(A381,1)</f>
         <v>41883</v>
       </c>
       <c r="B383" s="20" t="s">
@@ -12941,7 +12750,6 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
-        <f>EDATE(A383,1)</f>
         <v>41913</v>
       </c>
       <c r="B386" s="20" t="s">
@@ -12988,7 +12796,6 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
-        <f>EDATE(A386,1)</f>
         <v>41944</v>
       </c>
       <c r="B388" s="20" t="s">
@@ -13057,7 +12864,6 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
-        <f>EDATE(A388,1)</f>
         <v>41974</v>
       </c>
       <c r="B391" s="20" t="s">
@@ -13100,7 +12906,6 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
-        <f>EDATE(A391,1)</f>
         <v>42005</v>
       </c>
       <c r="B393" s="20" t="s">
@@ -13145,7 +12950,6 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
-        <f>EDATE(A393,1)</f>
         <v>42036</v>
       </c>
       <c r="B395" s="20" t="s">
@@ -13214,7 +13018,6 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
-        <f>EDATE(A395,1)</f>
         <v>42064</v>
       </c>
       <c r="B398" s="20" t="s">
@@ -13259,7 +13062,6 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
-        <f>EDATE(A398,1)</f>
         <v>42095</v>
       </c>
       <c r="B400" s="20" t="s">
@@ -13326,7 +13128,6 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
-        <f>EDATE(A400,1)</f>
         <v>42125</v>
       </c>
       <c r="B403" s="20" t="s">
@@ -13351,7 +13152,6 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
-        <f t="shared" ref="A404:A407" si="6">EDATE(A403,1)</f>
         <v>42156</v>
       </c>
       <c r="B404" s="20" t="s">
@@ -13398,7 +13198,6 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
-        <f>EDATE(A404,1)</f>
         <v>42186</v>
       </c>
       <c r="B406" s="20" t="s">
@@ -13423,7 +13222,6 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
-        <f t="shared" si="6"/>
         <v>42217</v>
       </c>
       <c r="B407" s="20" t="s">
@@ -13470,7 +13268,6 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
-        <f>EDATE(A407,1)</f>
         <v>42248</v>
       </c>
       <c r="B409" s="20" t="s">
@@ -13517,7 +13314,6 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
-        <f>EDATE(A409,1)</f>
         <v>42278</v>
       </c>
       <c r="B411" s="20" t="s">
@@ -13564,7 +13360,6 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
-        <f>EDATE(A411,1)</f>
         <v>42309</v>
       </c>
       <c r="B413" s="20" t="s">
@@ -13655,7 +13450,6 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
-        <f>EDATE(A413,1)</f>
         <v>42339</v>
       </c>
       <c r="B417" s="20" t="s">
@@ -13698,7 +13492,6 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
-        <f>EDATE(A417,1)</f>
         <v>42370</v>
       </c>
       <c r="B419" s="20" t="s">
@@ -13743,7 +13536,6 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
-        <f>EDATE(A419,1)</f>
         <v>42401</v>
       </c>
       <c r="B421" s="20" t="s">
@@ -13790,7 +13582,6 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
-        <f>EDATE(A421,1)</f>
         <v>42430</v>
       </c>
       <c r="B423" s="20" t="s">
@@ -13815,7 +13606,6 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
-        <f t="shared" ref="A424:A437" si="7">EDATE(A423,1)</f>
         <v>42461</v>
       </c>
       <c r="B424" s="20" t="s">
@@ -13862,7 +13652,6 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
-        <f>EDATE(A424,1)</f>
         <v>42491</v>
       </c>
       <c r="B426" s="20" t="s">
@@ -13909,7 +13698,6 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
-        <f>EDATE(A426,1)</f>
         <v>42522</v>
       </c>
       <c r="B428" s="20" t="s">
@@ -13998,7 +13786,6 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
-        <f>EDATE(A428,1)</f>
         <v>42552</v>
       </c>
       <c r="B432" s="20" t="s">
@@ -14045,7 +13832,6 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
-        <f>EDATE(A432,1)</f>
         <v>42583</v>
       </c>
       <c r="B434" s="20" t="s">
@@ -14092,7 +13878,6 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
-        <f>EDATE(A434,1)</f>
         <v>42614</v>
       </c>
       <c r="B436" s="20" t="s">
@@ -14117,7 +13902,6 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
-        <f t="shared" si="7"/>
         <v>42644</v>
       </c>
       <c r="B437" s="20" t="s">
@@ -14164,7 +13948,6 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
-        <f>EDATE(A437,1)</f>
         <v>42675</v>
       </c>
       <c r="B439" s="20" t="s">
@@ -14233,7 +14016,6 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
-        <f>EDATE(A439,1)</f>
         <v>42705</v>
       </c>
       <c r="B442" s="20" t="s">
@@ -14276,7 +14058,6 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
-        <f>EDATE(A442,1)</f>
         <v>42736</v>
       </c>
       <c r="B444" s="20" t="s">
@@ -14343,7 +14124,6 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
-        <f>EDATE(A444,1)</f>
         <v>42767</v>
       </c>
       <c r="B447" s="20" t="s">
@@ -14368,7 +14148,6 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
-        <f>EDATE(A447,1)</f>
         <v>42795</v>
       </c>
       <c r="B448" s="20" t="s">
@@ -14459,7 +14238,6 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
-        <f>EDATE(A448,1)</f>
         <v>42826</v>
       </c>
       <c r="B452" s="20" t="s">
@@ -14524,7 +14302,6 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
-        <f>EDATE(A452,1)</f>
         <v>42856</v>
       </c>
       <c r="B455" s="20" t="s">
@@ -14571,7 +14348,6 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
-        <f>EDATE(A455,1)</f>
         <v>42887</v>
       </c>
       <c r="B457" s="20" t="s">
@@ -14598,7 +14374,6 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
-        <f t="shared" ref="A458:A473" si="8">EDATE(A457,1)</f>
         <v>42917</v>
       </c>
       <c r="B458" s="20" t="s">
@@ -14665,7 +14440,6 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
-        <f>EDATE(A458,1)</f>
         <v>42948</v>
       </c>
       <c r="B461" s="20" t="s">
@@ -14690,7 +14464,6 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
-        <f t="shared" si="8"/>
         <v>42979</v>
       </c>
       <c r="B462" s="20" t="s">
@@ -14737,7 +14510,6 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
-        <f>EDATE(A462,1)</f>
         <v>43009</v>
       </c>
       <c r="B464" s="20" t="s">
@@ -14802,14 +14574,13 @@
       <c r="H466" s="39"/>
       <c r="I466" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>127.25</v>
+        <v>128.75</v>
       </c>
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
-        <f>EDATE(A464,1)</f>
         <v>43040</v>
       </c>
       <c r="B467" s="20"/>
@@ -14830,7 +14601,6 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
-        <f t="shared" si="8"/>
         <v>43070</v>
       </c>
       <c r="B468" s="20" t="s">
@@ -14897,7 +14667,6 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
-        <f>EDATE(A468,1)</f>
         <v>43101</v>
       </c>
       <c r="B471" s="20" t="s">
@@ -14922,7 +14691,6 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
-        <f>EDATE(A471,1)</f>
         <v>43132</v>
       </c>
       <c r="B472" s="20"/>
@@ -14943,7 +14711,6 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
-        <f t="shared" si="8"/>
         <v>43160</v>
       </c>
       <c r="B473" s="20"/>
@@ -14964,7 +14731,6 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
-        <f>EDATE(A473,1)</f>
         <v>43191</v>
       </c>
       <c r="B474" s="20" t="s">
@@ -14989,7 +14755,6 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
-        <f t="shared" ref="A475:A496" si="9">EDATE(A474,1)</f>
         <v>43221</v>
       </c>
       <c r="B475" s="20" t="s">
@@ -15058,7 +14823,6 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
-        <f>EDATE(A475,1)</f>
         <v>43252</v>
       </c>
       <c r="B478" s="20" t="s">
@@ -15083,7 +14847,6 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
-        <f t="shared" si="9"/>
         <v>43282</v>
       </c>
       <c r="B479" s="20" t="s">
@@ -15152,7 +14915,6 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
-        <f>EDATE(A479,1)</f>
         <v>43313</v>
       </c>
       <c r="B482" s="20" t="s">
@@ -15221,7 +14983,6 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
-        <f>EDATE(A482,1)</f>
         <v>43344</v>
       </c>
       <c r="B485" s="20"/>
@@ -15242,7 +15003,6 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
-        <f>EDATE(A485,1)</f>
         <v>43374</v>
       </c>
       <c r="B486" s="20" t="s">
@@ -15289,7 +15049,6 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
-        <f>EDATE(A486,1)</f>
         <v>43405</v>
       </c>
       <c r="B488" s="20" t="s">
@@ -15338,7 +15097,6 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
-        <f>EDATE(A488,1)</f>
         <v>43435</v>
       </c>
       <c r="B490" s="20" t="s">
@@ -15425,7 +15183,6 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
-        <f>EDATE(A490,1)</f>
         <v>43466</v>
       </c>
       <c r="B494" s="20" t="s">
@@ -15452,7 +15209,6 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
-        <f t="shared" si="9"/>
         <v>43497</v>
       </c>
       <c r="B495" s="20"/>
@@ -15473,7 +15229,6 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
-        <f t="shared" si="9"/>
         <v>43525</v>
       </c>
       <c r="B496" s="20" t="s">
@@ -15520,7 +15275,6 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
-        <f>EDATE(A496,1)</f>
         <v>43556</v>
       </c>
       <c r="B498" s="20" t="s">
@@ -15589,7 +15343,6 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
-        <f>EDATE(A498,1)</f>
         <v>43586</v>
       </c>
       <c r="B501" s="20" t="s">
@@ -15614,7 +15367,6 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
-        <f>EDATE(A501,1)</f>
         <v>43617</v>
       </c>
       <c r="B502" s="20" t="s">
@@ -15659,7 +15411,6 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
-        <f>EDATE(A502,1)</f>
         <v>43647</v>
       </c>
       <c r="B504" s="20" t="s">
@@ -15684,7 +15435,6 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
-        <f t="shared" ref="A505:A517" si="10">EDATE(A504,1)</f>
         <v>43678</v>
       </c>
       <c r="B505" s="20" t="s">
@@ -15711,7 +15461,6 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
-        <f t="shared" si="10"/>
         <v>43709</v>
       </c>
       <c r="B506" s="20" t="s">
@@ -15738,7 +15487,6 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
-        <f t="shared" si="10"/>
         <v>43739</v>
       </c>
       <c r="B507" s="20" t="s">
@@ -15765,7 +15513,6 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
-        <f t="shared" si="10"/>
         <v>43770</v>
       </c>
       <c r="B508" s="20" t="s">
@@ -15792,7 +15539,6 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
-        <f t="shared" si="10"/>
         <v>43800</v>
       </c>
       <c r="B509" s="20" t="s">
@@ -15881,7 +15627,6 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
-        <f>EDATE(A509,1)</f>
         <v>43831</v>
       </c>
       <c r="B513" s="20" t="s">
@@ -15926,7 +15671,6 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
-        <f>EDATE(A513,1)</f>
         <v>43862</v>
       </c>
       <c r="B515" s="20"/>
@@ -15947,7 +15691,6 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
-        <f t="shared" si="10"/>
         <v>43891</v>
       </c>
       <c r="B516" s="20"/>
@@ -15968,7 +15711,6 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
-        <f t="shared" si="10"/>
         <v>43922</v>
       </c>
       <c r="B517" s="20"/>
@@ -15989,7 +15731,6 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
-        <f>EDATE(A517,1)</f>
         <v>43952</v>
       </c>
       <c r="B518" s="20"/>
@@ -16010,7 +15751,6 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
-        <f t="shared" ref="A519:A526" si="11">EDATE(A518,1)</f>
         <v>43983</v>
       </c>
       <c r="B519" s="20"/>
@@ -16031,7 +15771,6 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
-        <f t="shared" si="11"/>
         <v>44013</v>
       </c>
       <c r="B520" s="20"/>
@@ -16052,7 +15791,6 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
-        <f t="shared" si="11"/>
         <v>44044</v>
       </c>
       <c r="B521" s="20"/>
@@ -16073,7 +15811,6 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
-        <f t="shared" si="11"/>
         <v>44075</v>
       </c>
       <c r="B522" s="20" t="s">
@@ -16120,7 +15857,6 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
-        <f>EDATE(A522,1)</f>
         <v>44105</v>
       </c>
       <c r="B524" s="20"/>
@@ -16141,7 +15877,6 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
-        <f t="shared" si="11"/>
         <v>44136</v>
       </c>
       <c r="B525" s="20"/>
@@ -16162,7 +15897,6 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
-        <f t="shared" si="11"/>
         <v>44166</v>
       </c>
       <c r="B526" s="20" t="s">
@@ -16249,7 +15983,6 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
-        <f>EDATE(A526,1)</f>
         <v>44197</v>
       </c>
       <c r="B530" s="20"/>
@@ -16270,7 +16003,6 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
-        <f>EDATE(A530,1)</f>
         <v>44228</v>
       </c>
       <c r="B531" s="20" t="s">
@@ -16295,7 +16027,6 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
-        <f t="shared" ref="A532:A545" si="12">EDATE(A531,1)</f>
         <v>44256</v>
       </c>
       <c r="B532" s="20"/>
@@ -16316,7 +16047,6 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
-        <f t="shared" si="12"/>
         <v>44287</v>
       </c>
       <c r="B533" s="20" t="s">
@@ -16341,7 +16071,6 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
-        <f t="shared" si="12"/>
         <v>44317</v>
       </c>
       <c r="B534" s="20"/>
@@ -16362,7 +16091,6 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
-        <f t="shared" si="12"/>
         <v>44348</v>
       </c>
       <c r="B535" s="20"/>
@@ -16383,7 +16111,6 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
-        <f t="shared" si="12"/>
         <v>44378</v>
       </c>
       <c r="B536" s="20"/>
@@ -16404,7 +16131,6 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <f t="shared" si="12"/>
         <v>44409</v>
       </c>
       <c r="B537" s="20"/>
@@ -16425,7 +16151,6 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
-        <f t="shared" si="12"/>
         <v>44440</v>
       </c>
       <c r="B538" s="20"/>
@@ -16446,7 +16171,6 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <f t="shared" si="12"/>
         <v>44470</v>
       </c>
       <c r="B539" s="20" t="s">
@@ -16557,7 +16281,6 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <f>EDATE(A539,1)</f>
         <v>44501</v>
       </c>
       <c r="B544" s="20"/>
@@ -16578,7 +16301,6 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
-        <f t="shared" si="12"/>
         <v>44531</v>
       </c>
       <c r="B545" s="20" t="s">
@@ -16623,7 +16345,6 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
-        <f>EDATE(A545,1)</f>
         <v>44562</v>
       </c>
       <c r="B547" s="20"/>
@@ -16644,7 +16365,6 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <f t="shared" ref="A548:A562" si="13">EDATE(A547,1)</f>
         <v>44593</v>
       </c>
       <c r="B548" s="20"/>
@@ -16665,7 +16385,6 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <f t="shared" si="13"/>
         <v>44621</v>
       </c>
       <c r="B549" s="20"/>
@@ -16686,7 +16405,6 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <f t="shared" si="13"/>
         <v>44652</v>
       </c>
       <c r="B550" s="20"/>
@@ -16707,7 +16425,6 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <f t="shared" si="13"/>
         <v>44682</v>
       </c>
       <c r="B551" s="20" t="s">
@@ -16796,7 +16513,6 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <f>EDATE(A551,1)</f>
         <v>44713</v>
       </c>
       <c r="B555" s="20" t="s">
@@ -16845,7 +16561,6 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <f>EDATE(A555,1)</f>
         <v>44743</v>
       </c>
       <c r="B557" s="20"/>
@@ -16866,7 +16581,6 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <f t="shared" si="13"/>
         <v>44774</v>
       </c>
       <c r="B558" s="20" t="s">
@@ -16893,7 +16607,6 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <f t="shared" si="13"/>
         <v>44805</v>
       </c>
       <c r="B559" s="20" t="s">
@@ -16920,7 +16633,6 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <f t="shared" si="13"/>
         <v>44835</v>
       </c>
       <c r="B560" s="20" t="s">
@@ -16947,7 +16659,6 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <f t="shared" si="13"/>
         <v>44866</v>
       </c>
       <c r="B561" s="20" t="s">
@@ -16974,7 +16685,6 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <f t="shared" si="13"/>
         <v>44896</v>
       </c>
       <c r="B562" s="20" t="s">
@@ -17019,7 +16729,6 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <f>EDATE(A562,1)</f>
         <v>44927</v>
       </c>
       <c r="B564" s="20" t="s">
@@ -17041,6 +16750,1014 @@
       <c r="K564" s="20" t="s">
         <v>378</v>
       </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A565" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B565" s="20"/>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D565" s="39"/>
+      <c r="E565" s="9"/>
+      <c r="F565" s="20"/>
+      <c r="G565" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H565" s="39"/>
+      <c r="I565" s="9"/>
+      <c r="J565" s="11"/>
+      <c r="K565" s="20"/>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A566" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B566" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C566" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D566" s="39"/>
+      <c r="E566" s="9"/>
+      <c r="F566" s="20"/>
+      <c r="G566" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H566" s="39">
+        <v>1</v>
+      </c>
+      <c r="I566" s="9"/>
+      <c r="J566" s="11"/>
+      <c r="K566" s="48">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A567" s="40"/>
+      <c r="B567" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C567" s="13"/>
+      <c r="D567" s="39"/>
+      <c r="E567" s="9"/>
+      <c r="F567" s="20"/>
+      <c r="G567" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H567" s="39"/>
+      <c r="I567" s="9"/>
+      <c r="J567" s="11"/>
+      <c r="K567" s="48">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A568" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B568" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C568" s="13"/>
+      <c r="D568" s="39">
+        <v>3</v>
+      </c>
+      <c r="E568" s="9"/>
+      <c r="F568" s="20"/>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H568" s="39"/>
+      <c r="I568" s="9"/>
+      <c r="J568" s="11"/>
+      <c r="K568" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A569" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B569" s="20"/>
+      <c r="C569" s="13"/>
+      <c r="D569" s="39"/>
+      <c r="E569" s="9"/>
+      <c r="F569" s="20"/>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H569" s="39"/>
+      <c r="I569" s="9"/>
+      <c r="J569" s="11"/>
+      <c r="K569" s="20"/>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A570" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B570" s="20"/>
+      <c r="C570" s="13"/>
+      <c r="D570" s="39"/>
+      <c r="E570" s="9"/>
+      <c r="F570" s="20"/>
+      <c r="G570" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H570" s="39"/>
+      <c r="I570" s="9"/>
+      <c r="J570" s="11"/>
+      <c r="K570" s="20"/>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A571" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B571" s="20"/>
+      <c r="C571" s="13"/>
+      <c r="D571" s="39"/>
+      <c r="E571" s="9"/>
+      <c r="F571" s="20"/>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H571" s="39"/>
+      <c r="I571" s="9"/>
+      <c r="J571" s="11"/>
+      <c r="K571" s="20"/>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A572" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B572" s="20"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="39"/>
+      <c r="E572" s="9"/>
+      <c r="F572" s="20"/>
+      <c r="G572" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H572" s="39"/>
+      <c r="I572" s="9"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="20"/>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A573" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B573" s="20"/>
+      <c r="C573" s="13"/>
+      <c r="D573" s="39"/>
+      <c r="E573" s="9"/>
+      <c r="F573" s="20"/>
+      <c r="G573" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H573" s="39"/>
+      <c r="I573" s="9"/>
+      <c r="J573" s="11"/>
+      <c r="K573" s="20"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A574" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B574" s="20"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="39"/>
+      <c r="E574" s="9"/>
+      <c r="F574" s="20"/>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H574" s="39"/>
+      <c r="I574" s="9"/>
+      <c r="J574" s="11"/>
+      <c r="K574" s="20"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A575" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B575" s="20"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="39"/>
+      <c r="E575" s="9"/>
+      <c r="F575" s="20"/>
+      <c r="G575" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="39"/>
+      <c r="I575" s="9"/>
+      <c r="J575" s="11"/>
+      <c r="K575" s="20"/>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A576" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B576" s="20"/>
+      <c r="C576" s="13"/>
+      <c r="D576" s="39"/>
+      <c r="E576" s="9"/>
+      <c r="F576" s="20"/>
+      <c r="G576" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H576" s="39"/>
+      <c r="I576" s="9"/>
+      <c r="J576" s="11"/>
+      <c r="K576" s="20"/>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A577" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B577" s="20"/>
+      <c r="C577" s="13"/>
+      <c r="D577" s="39"/>
+      <c r="E577" s="9"/>
+      <c r="F577" s="20"/>
+      <c r="G577" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H577" s="39"/>
+      <c r="I577" s="9"/>
+      <c r="J577" s="11"/>
+      <c r="K577" s="20"/>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A578" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B578" s="20"/>
+      <c r="C578" s="13"/>
+      <c r="D578" s="39"/>
+      <c r="E578" s="9"/>
+      <c r="F578" s="20"/>
+      <c r="G578" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H578" s="39"/>
+      <c r="I578" s="9"/>
+      <c r="J578" s="11"/>
+      <c r="K578" s="20"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A579" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B579" s="20"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="39"/>
+      <c r="E579" s="9"/>
+      <c r="F579" s="20"/>
+      <c r="G579" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H579" s="39"/>
+      <c r="I579" s="9"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="20"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A580" s="40"/>
+      <c r="B580" s="20"/>
+      <c r="C580" s="13"/>
+      <c r="D580" s="39"/>
+      <c r="E580" s="9"/>
+      <c r="F580" s="20"/>
+      <c r="G580" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H580" s="39"/>
+      <c r="I580" s="9"/>
+      <c r="J580" s="11"/>
+      <c r="K580" s="20"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A581" s="40"/>
+      <c r="B581" s="20"/>
+      <c r="C581" s="13"/>
+      <c r="D581" s="39"/>
+      <c r="E581" s="9"/>
+      <c r="F581" s="20"/>
+      <c r="G581" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H581" s="39"/>
+      <c r="I581" s="9"/>
+      <c r="J581" s="11"/>
+      <c r="K581" s="20"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A582" s="40"/>
+      <c r="B582" s="20"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="39"/>
+      <c r="E582" s="9"/>
+      <c r="F582" s="20"/>
+      <c r="G582" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H582" s="39"/>
+      <c r="I582" s="9"/>
+      <c r="J582" s="11"/>
+      <c r="K582" s="20"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A583" s="40"/>
+      <c r="B583" s="20"/>
+      <c r="C583" s="13"/>
+      <c r="D583" s="39"/>
+      <c r="E583" s="9"/>
+      <c r="F583" s="20"/>
+      <c r="G583" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H583" s="39"/>
+      <c r="I583" s="9"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="20"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A584" s="40"/>
+      <c r="B584" s="20"/>
+      <c r="C584" s="13"/>
+      <c r="D584" s="39"/>
+      <c r="E584" s="9"/>
+      <c r="F584" s="20"/>
+      <c r="G584" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H584" s="39"/>
+      <c r="I584" s="9"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="20"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A585" s="40"/>
+      <c r="B585" s="20"/>
+      <c r="C585" s="13"/>
+      <c r="D585" s="39"/>
+      <c r="E585" s="9"/>
+      <c r="F585" s="20"/>
+      <c r="G585" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H585" s="39"/>
+      <c r="I585" s="9"/>
+      <c r="J585" s="11"/>
+      <c r="K585" s="20"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A586" s="40"/>
+      <c r="B586" s="20"/>
+      <c r="C586" s="13"/>
+      <c r="D586" s="39"/>
+      <c r="E586" s="9"/>
+      <c r="F586" s="20"/>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H586" s="39"/>
+      <c r="I586" s="9"/>
+      <c r="J586" s="11"/>
+      <c r="K586" s="20"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A587" s="40"/>
+      <c r="B587" s="20"/>
+      <c r="C587" s="13"/>
+      <c r="D587" s="39"/>
+      <c r="E587" s="9"/>
+      <c r="F587" s="20"/>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H587" s="39"/>
+      <c r="I587" s="9"/>
+      <c r="J587" s="11"/>
+      <c r="K587" s="20"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A588" s="40"/>
+      <c r="B588" s="20"/>
+      <c r="C588" s="13"/>
+      <c r="D588" s="39"/>
+      <c r="E588" s="9"/>
+      <c r="F588" s="20"/>
+      <c r="G588" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H588" s="39"/>
+      <c r="I588" s="9"/>
+      <c r="J588" s="11"/>
+      <c r="K588" s="20"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A589" s="40"/>
+      <c r="B589" s="20"/>
+      <c r="C589" s="13"/>
+      <c r="D589" s="39"/>
+      <c r="E589" s="9"/>
+      <c r="F589" s="20"/>
+      <c r="G589" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H589" s="39"/>
+      <c r="I589" s="9"/>
+      <c r="J589" s="11"/>
+      <c r="K589" s="20"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A590" s="40"/>
+      <c r="B590" s="20"/>
+      <c r="C590" s="13"/>
+      <c r="D590" s="39"/>
+      <c r="E590" s="9"/>
+      <c r="F590" s="20"/>
+      <c r="G590" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H590" s="39"/>
+      <c r="I590" s="9"/>
+      <c r="J590" s="11"/>
+      <c r="K590" s="20"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A591" s="40"/>
+      <c r="B591" s="20"/>
+      <c r="C591" s="13"/>
+      <c r="D591" s="39"/>
+      <c r="E591" s="9"/>
+      <c r="F591" s="20"/>
+      <c r="G591" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H591" s="39"/>
+      <c r="I591" s="9"/>
+      <c r="J591" s="11"/>
+      <c r="K591" s="20"/>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A592" s="40"/>
+      <c r="B592" s="20"/>
+      <c r="C592" s="13"/>
+      <c r="D592" s="39"/>
+      <c r="E592" s="9"/>
+      <c r="F592" s="20"/>
+      <c r="G592" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H592" s="39"/>
+      <c r="I592" s="9"/>
+      <c r="J592" s="11"/>
+      <c r="K592" s="20"/>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A593" s="40"/>
+      <c r="B593" s="20"/>
+      <c r="C593" s="13"/>
+      <c r="D593" s="39"/>
+      <c r="E593" s="9"/>
+      <c r="F593" s="20"/>
+      <c r="G593" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H593" s="39"/>
+      <c r="I593" s="9"/>
+      <c r="J593" s="11"/>
+      <c r="K593" s="20"/>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A594" s="40"/>
+      <c r="B594" s="20"/>
+      <c r="C594" s="13"/>
+      <c r="D594" s="39"/>
+      <c r="E594" s="9"/>
+      <c r="F594" s="20"/>
+      <c r="G594" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H594" s="39"/>
+      <c r="I594" s="9"/>
+      <c r="J594" s="11"/>
+      <c r="K594" s="20"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A595" s="40"/>
+      <c r="B595" s="20"/>
+      <c r="C595" s="13"/>
+      <c r="D595" s="39"/>
+      <c r="E595" s="9"/>
+      <c r="F595" s="20"/>
+      <c r="G595" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="39"/>
+      <c r="I595" s="9"/>
+      <c r="J595" s="11"/>
+      <c r="K595" s="20"/>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A596" s="40"/>
+      <c r="B596" s="20"/>
+      <c r="C596" s="13"/>
+      <c r="D596" s="39"/>
+      <c r="E596" s="9"/>
+      <c r="F596" s="20"/>
+      <c r="G596" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H596" s="39"/>
+      <c r="I596" s="9"/>
+      <c r="J596" s="11"/>
+      <c r="K596" s="20"/>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A597" s="40"/>
+      <c r="B597" s="20"/>
+      <c r="C597" s="13"/>
+      <c r="D597" s="39"/>
+      <c r="E597" s="9"/>
+      <c r="F597" s="20"/>
+      <c r="G597" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H597" s="39"/>
+      <c r="I597" s="9"/>
+      <c r="J597" s="11"/>
+      <c r="K597" s="20"/>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A598" s="40"/>
+      <c r="B598" s="20"/>
+      <c r="C598" s="13"/>
+      <c r="D598" s="39"/>
+      <c r="E598" s="9"/>
+      <c r="F598" s="20"/>
+      <c r="G598" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H598" s="39"/>
+      <c r="I598" s="9"/>
+      <c r="J598" s="11"/>
+      <c r="K598" s="20"/>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A599" s="40"/>
+      <c r="B599" s="20"/>
+      <c r="C599" s="13"/>
+      <c r="D599" s="39"/>
+      <c r="E599" s="9"/>
+      <c r="F599" s="20"/>
+      <c r="G599" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H599" s="39"/>
+      <c r="I599" s="9"/>
+      <c r="J599" s="11"/>
+      <c r="K599" s="20"/>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A600" s="40"/>
+      <c r="B600" s="20"/>
+      <c r="C600" s="13"/>
+      <c r="D600" s="39"/>
+      <c r="E600" s="9"/>
+      <c r="F600" s="20"/>
+      <c r="G600" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H600" s="39"/>
+      <c r="I600" s="9"/>
+      <c r="J600" s="11"/>
+      <c r="K600" s="20"/>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A601" s="40"/>
+      <c r="B601" s="20"/>
+      <c r="C601" s="13"/>
+      <c r="D601" s="39"/>
+      <c r="E601" s="9"/>
+      <c r="F601" s="20"/>
+      <c r="G601" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H601" s="39"/>
+      <c r="I601" s="9"/>
+      <c r="J601" s="11"/>
+      <c r="K601" s="20"/>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A602" s="40"/>
+      <c r="B602" s="20"/>
+      <c r="C602" s="13"/>
+      <c r="D602" s="39"/>
+      <c r="E602" s="9"/>
+      <c r="F602" s="20"/>
+      <c r="G602" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H602" s="39"/>
+      <c r="I602" s="9"/>
+      <c r="J602" s="11"/>
+      <c r="K602" s="20"/>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A603" s="40"/>
+      <c r="B603" s="20"/>
+      <c r="C603" s="13"/>
+      <c r="D603" s="39"/>
+      <c r="E603" s="9"/>
+      <c r="F603" s="20"/>
+      <c r="G603" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H603" s="39"/>
+      <c r="I603" s="9"/>
+      <c r="J603" s="11"/>
+      <c r="K603" s="20"/>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A604" s="40"/>
+      <c r="B604" s="20"/>
+      <c r="C604" s="13"/>
+      <c r="D604" s="39"/>
+      <c r="E604" s="9"/>
+      <c r="F604" s="20"/>
+      <c r="G604" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H604" s="39"/>
+      <c r="I604" s="9"/>
+      <c r="J604" s="11"/>
+      <c r="K604" s="20"/>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A605" s="40"/>
+      <c r="B605" s="20"/>
+      <c r="C605" s="13"/>
+      <c r="D605" s="39"/>
+      <c r="E605" s="9"/>
+      <c r="F605" s="20"/>
+      <c r="G605" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H605" s="39"/>
+      <c r="I605" s="9"/>
+      <c r="J605" s="11"/>
+      <c r="K605" s="20"/>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A606" s="40"/>
+      <c r="B606" s="20"/>
+      <c r="C606" s="13"/>
+      <c r="D606" s="39"/>
+      <c r="E606" s="9"/>
+      <c r="F606" s="20"/>
+      <c r="G606" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H606" s="39"/>
+      <c r="I606" s="9"/>
+      <c r="J606" s="11"/>
+      <c r="K606" s="20"/>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A607" s="40"/>
+      <c r="B607" s="20"/>
+      <c r="C607" s="13"/>
+      <c r="D607" s="39"/>
+      <c r="E607" s="9"/>
+      <c r="F607" s="20"/>
+      <c r="G607" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H607" s="39"/>
+      <c r="I607" s="9"/>
+      <c r="J607" s="11"/>
+      <c r="K607" s="20"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A608" s="40"/>
+      <c r="B608" s="20"/>
+      <c r="C608" s="13"/>
+      <c r="D608" s="39"/>
+      <c r="E608" s="9"/>
+      <c r="F608" s="20"/>
+      <c r="G608" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H608" s="39"/>
+      <c r="I608" s="9"/>
+      <c r="J608" s="11"/>
+      <c r="K608" s="20"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A609" s="40"/>
+      <c r="B609" s="20"/>
+      <c r="C609" s="13"/>
+      <c r="D609" s="39"/>
+      <c r="E609" s="9"/>
+      <c r="F609" s="20"/>
+      <c r="G609" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H609" s="39"/>
+      <c r="I609" s="9"/>
+      <c r="J609" s="11"/>
+      <c r="K609" s="20"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A610" s="40"/>
+      <c r="B610" s="20"/>
+      <c r="C610" s="13"/>
+      <c r="D610" s="39"/>
+      <c r="E610" s="9"/>
+      <c r="F610" s="20"/>
+      <c r="G610" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H610" s="39"/>
+      <c r="I610" s="9"/>
+      <c r="J610" s="11"/>
+      <c r="K610" s="20"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A611" s="40"/>
+      <c r="B611" s="20"/>
+      <c r="C611" s="13"/>
+      <c r="D611" s="39"/>
+      <c r="E611" s="9"/>
+      <c r="F611" s="20"/>
+      <c r="G611" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H611" s="39"/>
+      <c r="I611" s="9"/>
+      <c r="J611" s="11"/>
+      <c r="K611" s="20"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A612" s="40"/>
+      <c r="B612" s="20"/>
+      <c r="C612" s="13"/>
+      <c r="D612" s="39"/>
+      <c r="E612" s="9"/>
+      <c r="F612" s="20"/>
+      <c r="G612" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H612" s="39"/>
+      <c r="I612" s="9"/>
+      <c r="J612" s="11"/>
+      <c r="K612" s="20"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A613" s="40"/>
+      <c r="B613" s="20"/>
+      <c r="C613" s="13"/>
+      <c r="D613" s="39"/>
+      <c r="E613" s="9"/>
+      <c r="F613" s="20"/>
+      <c r="G613" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H613" s="39"/>
+      <c r="I613" s="9"/>
+      <c r="J613" s="11"/>
+      <c r="K613" s="20"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A614" s="40"/>
+      <c r="B614" s="20"/>
+      <c r="C614" s="13"/>
+      <c r="D614" s="39"/>
+      <c r="E614" s="9"/>
+      <c r="F614" s="20"/>
+      <c r="G614" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H614" s="39"/>
+      <c r="I614" s="9"/>
+      <c r="J614" s="11"/>
+      <c r="K614" s="20"/>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A615" s="40"/>
+      <c r="B615" s="20"/>
+      <c r="C615" s="13"/>
+      <c r="D615" s="39"/>
+      <c r="E615" s="9"/>
+      <c r="F615" s="20"/>
+      <c r="G615" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H615" s="39"/>
+      <c r="I615" s="9"/>
+      <c r="J615" s="11"/>
+      <c r="K615" s="20"/>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A616" s="40"/>
+      <c r="B616" s="20"/>
+      <c r="C616" s="13"/>
+      <c r="D616" s="39"/>
+      <c r="E616" s="9"/>
+      <c r="F616" s="20"/>
+      <c r="G616" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H616" s="39"/>
+      <c r="I616" s="9"/>
+      <c r="J616" s="11"/>
+      <c r="K616" s="20"/>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A617" s="40"/>
+      <c r="B617" s="20"/>
+      <c r="C617" s="13"/>
+      <c r="D617" s="39"/>
+      <c r="E617" s="9"/>
+      <c r="F617" s="20"/>
+      <c r="G617" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H617" s="39"/>
+      <c r="I617" s="9"/>
+      <c r="J617" s="11"/>
+      <c r="K617" s="20"/>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A618" s="40"/>
+      <c r="B618" s="20"/>
+      <c r="C618" s="13"/>
+      <c r="D618" s="39"/>
+      <c r="E618" s="9"/>
+      <c r="F618" s="20"/>
+      <c r="G618" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H618" s="39"/>
+      <c r="I618" s="9"/>
+      <c r="J618" s="11"/>
+      <c r="K618" s="20"/>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A619" s="40"/>
+      <c r="B619" s="20"/>
+      <c r="C619" s="13"/>
+      <c r="D619" s="39"/>
+      <c r="E619" s="9"/>
+      <c r="F619" s="20"/>
+      <c r="G619" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H619" s="39"/>
+      <c r="I619" s="9"/>
+      <c r="J619" s="11"/>
+      <c r="K619" s="20"/>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A620" s="40"/>
+      <c r="B620" s="20"/>
+      <c r="C620" s="13"/>
+      <c r="D620" s="39"/>
+      <c r="E620" s="9"/>
+      <c r="F620" s="20"/>
+      <c r="G620" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H620" s="39"/>
+      <c r="I620" s="9"/>
+      <c r="J620" s="11"/>
+      <c r="K620" s="20"/>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A621" s="40"/>
+      <c r="B621" s="20"/>
+      <c r="C621" s="13"/>
+      <c r="D621" s="39"/>
+      <c r="E621" s="9"/>
+      <c r="F621" s="20"/>
+      <c r="G621" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H621" s="39"/>
+      <c r="I621" s="9"/>
+      <c r="J621" s="11"/>
+      <c r="K621" s="20"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A622" s="40"/>
+      <c r="B622" s="20"/>
+      <c r="C622" s="13"/>
+      <c r="D622" s="39"/>
+      <c r="E622" s="9"/>
+      <c r="F622" s="20"/>
+      <c r="G622" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H622" s="39"/>
+      <c r="I622" s="9"/>
+      <c r="J622" s="11"/>
+      <c r="K622" s="20"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A623" s="40"/>
+      <c r="B623" s="20"/>
+      <c r="C623" s="13"/>
+      <c r="D623" s="39"/>
+      <c r="E623" s="9"/>
+      <c r="F623" s="20"/>
+      <c r="G623" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H623" s="39"/>
+      <c r="I623" s="9"/>
+      <c r="J623" s="11"/>
+      <c r="K623" s="20"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A624" s="49"/>
+      <c r="B624" s="15"/>
+      <c r="C624" s="41"/>
+      <c r="D624" s="42"/>
+      <c r="E624" s="9"/>
+      <c r="F624" s="15"/>
+      <c r="G624" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H624" s="42"/>
+      <c r="I624" s="9"/>
+      <c r="J624" s="12"/>
+      <c r="K624" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17106,17 +17823,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -17199,12 +17916,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/ENMACINO, LEILA ANGCAYA.xlsx
+++ b/REGULAR/ENMACINO, LEILA ANGCAYA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3814CFDA-72FF-4C49-A8EE-3444C505B15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="412">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1276,7 +1275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1707,7 +1706,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1782,7 +1780,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1850,7 +1847,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2092,7 +2088,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2140,7 +2135,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2178,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2242,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2302,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2368,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2431,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2529,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2588,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,7 +2653,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2696,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2771,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2962,7 +2957,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3023,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,7 +3081,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3147,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +3203,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,7 +3278,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3326,7 +3321,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3387,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3448,7 +3443,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3546,7 +3541,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3609,7 +3604,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,25 +3670,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K624" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K625" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3705,12 +3700,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3719,13 +3714,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4029,7 +4024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4039,7 +4034,7 @@
       <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4047,34 +4042,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K624"/>
+  <dimension ref="A2:K625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A557" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="D568" sqref="D568"/>
+      <selection pane="bottomLeft" activeCell="I570" sqref="I570"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4095,7 +4090,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4113,7 +4108,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4135,7 +4130,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4143,7 +4138,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4156,7 +4151,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -4173,7 +4168,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4208,7 +4203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4217,7 +4212,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>23.347999999999836</v>
+        <v>24.597999999999836</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4227,12 +4222,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>128.75</v>
+        <v>129</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -4254,7 +4249,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4280,7 +4275,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4302,7 +4297,7 @@
         <v>35815</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>47</v>
@@ -4322,7 +4317,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35827</v>
       </c>
@@ -4346,7 +4341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>50</v>
@@ -4366,7 +4361,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35855</v>
       </c>
@@ -4392,7 +4387,7 @@
         <v>35850</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
@@ -4414,7 +4409,7 @@
         <v>35856</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>46</v>
@@ -4436,7 +4431,7 @@
         <v>35874</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>52</v>
@@ -4456,7 +4451,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35886</v>
       </c>
@@ -4482,7 +4477,7 @@
         <v>35915</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>53</v>
@@ -4502,7 +4497,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35916</v>
       </c>
@@ -4528,7 +4523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="15" t="s">
         <v>56</v>
@@ -4548,7 +4543,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35947</v>
       </c>
@@ -4572,7 +4567,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35977</v>
       </c>
@@ -4592,7 +4587,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36008</v>
       </c>
@@ -4616,7 +4611,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36039</v>
       </c>
@@ -4642,7 +4637,7 @@
         <v>36040</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -4662,7 +4657,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="48"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36069</v>
       </c>
@@ -4686,7 +4681,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36100</v>
       </c>
@@ -4712,7 +4707,7 @@
         <v>36124</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>46</v>
@@ -4734,7 +4729,7 @@
         <v>36122</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>61</v>
@@ -4754,7 +4749,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="48"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36130</v>
       </c>
@@ -4780,7 +4775,7 @@
         <v>36144</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>62</v>
@@ -4802,7 +4797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>64</v>
@@ -4822,7 +4817,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="48"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>65</v>
       </c>
@@ -4840,7 +4835,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="48"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36161</v>
       </c>
@@ -4864,7 +4859,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36192</v>
       </c>
@@ -4888,7 +4883,7 @@
         <v>36193</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36220</v>
       </c>
@@ -4912,7 +4907,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36251</v>
       </c>
@@ -4938,7 +4933,7 @@
         <v>36280</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>69</v>
@@ -4958,7 +4953,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="48"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36281</v>
       </c>
@@ -4984,7 +4979,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>67</v>
@@ -5004,7 +4999,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>70</v>
@@ -5024,7 +5019,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36312</v>
       </c>
@@ -5048,7 +5043,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36342</v>
       </c>
@@ -5072,7 +5067,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36373</v>
       </c>
@@ -5098,7 +5093,7 @@
         <v>36402</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36404</v>
       </c>
@@ -5122,7 +5117,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36434</v>
       </c>
@@ -5146,7 +5141,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36465</v>
       </c>
@@ -5170,7 +5165,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36495</v>
       </c>
@@ -5196,7 +5191,7 @@
         <v>36511</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>51</v>
@@ -5218,7 +5213,7 @@
         <v>36514</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>51</v>
@@ -5240,7 +5235,7 @@
         <v>36521</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -5260,7 +5255,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
         <v>77</v>
       </c>
@@ -5278,7 +5273,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36526</v>
       </c>
@@ -5302,7 +5297,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36557</v>
       </c>
@@ -5326,7 +5321,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36586</v>
       </c>
@@ -5352,7 +5347,7 @@
         <v>36598</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>80</v>
@@ -5372,7 +5367,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="48"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36617</v>
       </c>
@@ -5398,7 +5393,7 @@
         <v>36641</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>81</v>
@@ -5418,7 +5413,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="48"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36647</v>
       </c>
@@ -5444,7 +5439,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>83</v>
@@ -5464,7 +5459,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36678</v>
       </c>
@@ -5488,7 +5483,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36708</v>
       </c>
@@ -5514,7 +5509,7 @@
         <v>36710</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>67</v>
@@ -5534,7 +5529,7 @@
         <v>36712</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>67</v>
@@ -5554,7 +5549,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36739</v>
       </c>
@@ -5580,7 +5575,7 @@
         <v>36760</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>86</v>
@@ -5600,7 +5595,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="48"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36770</v>
       </c>
@@ -5624,7 +5619,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>36800</v>
       </c>
@@ -5650,7 +5645,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>89</v>
@@ -5670,7 +5665,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36831</v>
       </c>
@@ -5696,7 +5691,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>67</v>
@@ -5716,7 +5711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>91</v>
@@ -5736,7 +5731,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36861</v>
       </c>
@@ -5762,7 +5757,7 @@
         <v>36886</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>92</v>
@@ -5782,7 +5777,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="48"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>93</v>
       </c>
@@ -5800,7 +5795,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36892</v>
       </c>
@@ -5824,7 +5819,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36923</v>
       </c>
@@ -5850,7 +5845,7 @@
         <v>36938</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>95</v>
@@ -5870,7 +5865,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="48"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>36951</v>
       </c>
@@ -5896,7 +5891,7 @@
         <v>36970</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>46</v>
@@ -5918,7 +5913,7 @@
         <v>36972</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>96</v>
@@ -5938,7 +5933,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="48"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>36982</v>
       </c>
@@ -5962,7 +5957,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>46</v>
@@ -5984,7 +5979,7 @@
         <v>37007</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37012</v>
       </c>
@@ -6004,7 +5999,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37043</v>
       </c>
@@ -6030,7 +6025,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>98</v>
@@ -6050,7 +6045,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37073</v>
       </c>
@@ -6076,7 +6071,7 @@
         <v>37077</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>99</v>
@@ -6094,7 +6089,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37104</v>
       </c>
@@ -6120,7 +6115,7 @@
         <v>37117</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>100</v>
@@ -6140,7 +6135,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37135</v>
       </c>
@@ -6164,7 +6159,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37165</v>
       </c>
@@ -6188,7 +6183,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37196</v>
       </c>
@@ -6214,7 +6209,7 @@
         <v>37209</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>51</v>
@@ -6236,7 +6231,7 @@
         <v>37211</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>62</v>
@@ -6258,7 +6253,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>51</v>
@@ -6280,7 +6275,7 @@
         <v>37232</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>104</v>
@@ -6300,7 +6295,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="48"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37226</v>
       </c>
@@ -6324,7 +6319,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
         <v>106</v>
       </c>
@@ -6342,7 +6337,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37257</v>
       </c>
@@ -6366,7 +6361,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37288</v>
       </c>
@@ -6392,7 +6387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>109</v>
@@ -6412,7 +6407,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="48"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>48</v>
@@ -6432,7 +6427,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37316</v>
       </c>
@@ -6452,7 +6447,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37347</v>
       </c>
@@ -6476,7 +6471,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37377</v>
       </c>
@@ -6502,7 +6497,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>51</v>
@@ -6524,7 +6519,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>113</v>
@@ -6544,7 +6539,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="48"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37408</v>
       </c>
@@ -6564,7 +6559,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37438</v>
       </c>
@@ -6588,7 +6583,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37469</v>
       </c>
@@ -6614,7 +6609,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>116</v>
@@ -6634,7 +6629,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37500</v>
       </c>
@@ -6660,7 +6655,7 @@
         <v>37516</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37530</v>
       </c>
@@ -6684,7 +6679,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37561</v>
       </c>
@@ -6710,7 +6705,7 @@
         <v>37568</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37591</v>
       </c>
@@ -6734,7 +6729,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>118</v>
@@ -6754,7 +6749,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="47" t="s">
         <v>119</v>
       </c>
@@ -6772,7 +6767,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37622</v>
       </c>
@@ -6798,7 +6793,7 @@
         <v>37635</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>120</v>
@@ -6816,7 +6811,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="48"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37653</v>
       </c>
@@ -6836,7 +6831,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37681</v>
       </c>
@@ -6862,7 +6857,7 @@
         <v>37687</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>121</v>
@@ -6882,7 +6877,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="48"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37712</v>
       </c>
@@ -6906,7 +6901,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>37742</v>
       </c>
@@ -6930,7 +6925,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37773</v>
       </c>
@@ -6956,7 +6951,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37803</v>
       </c>
@@ -6980,7 +6975,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>126</v>
@@ -7000,7 +6995,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>37834</v>
       </c>
@@ -7024,7 +7019,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>37865</v>
       </c>
@@ -7048,7 +7043,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>51</v>
@@ -7070,7 +7065,7 @@
         <v>37876</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>67</v>
@@ -7090,7 +7085,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>129</v>
@@ -7110,7 +7105,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="48"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>37895</v>
       </c>
@@ -7136,7 +7131,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>132</v>
@@ -7156,7 +7151,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>37926</v>
       </c>
@@ -7180,7 +7175,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>37956</v>
       </c>
@@ -7206,7 +7201,7 @@
         <v>37958</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>134</v>
@@ -7226,7 +7221,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="48"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="47" t="s">
         <v>135</v>
       </c>
@@ -7244,7 +7239,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="48"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>37987</v>
       </c>
@@ -7264,7 +7259,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>38018</v>
       </c>
@@ -7290,7 +7285,7 @@
         <v>38041</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>136</v>
@@ -7310,7 +7305,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="48"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38047</v>
       </c>
@@ -7334,7 +7329,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>138</v>
@@ -7354,7 +7349,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38078</v>
       </c>
@@ -7378,7 +7373,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38108</v>
       </c>
@@ -7402,7 +7397,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38139</v>
       </c>
@@ -7426,7 +7421,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38169</v>
       </c>
@@ -7452,7 +7447,7 @@
         <v>38184</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>46</v>
@@ -7474,7 +7469,7 @@
         <v>38194</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>142</v>
@@ -7494,7 +7489,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38200</v>
       </c>
@@ -7518,7 +7513,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38231</v>
       </c>
@@ -7542,7 +7537,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38261</v>
       </c>
@@ -7566,7 +7561,7 @@
         <v>38272</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>145</v>
@@ -7586,7 +7581,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="48"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38292</v>
       </c>
@@ -7610,7 +7605,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38322</v>
       </c>
@@ -7636,7 +7631,7 @@
         <v>38322</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>67</v>
@@ -7656,7 +7651,7 @@
         <v>38314</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="47" t="s">
         <v>147</v>
       </c>
@@ -7674,7 +7669,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="48"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>38353</v>
       </c>
@@ -7698,7 +7693,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38384</v>
       </c>
@@ -7722,7 +7717,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38412</v>
       </c>
@@ -7746,7 +7741,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38443</v>
       </c>
@@ -7772,7 +7767,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>53</v>
@@ -7792,7 +7787,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>38473</v>
       </c>
@@ -7818,7 +7813,7 @@
         <v>38485</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>46</v>
@@ -7840,7 +7835,7 @@
         <v>38489</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>54</v>
@@ -7862,7 +7857,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>111</v>
@@ -7884,7 +7879,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>153</v>
@@ -7904,7 +7899,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="48"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>38504</v>
       </c>
@@ -7930,7 +7925,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>54</v>
@@ -7952,7 +7947,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>46</v>
@@ -7974,7 +7969,7 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>138</v>
@@ -7994,7 +7989,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>159</v>
@@ -8014,7 +8009,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="48"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38534</v>
       </c>
@@ -8040,7 +8035,7 @@
         <v>38560</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>67</v>
@@ -8062,7 +8057,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>160</v>
@@ -8082,7 +8077,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="48"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>38565</v>
       </c>
@@ -8106,7 +8101,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>38596</v>
       </c>
@@ -8132,7 +8127,7 @@
         <v>38615</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>46</v>
@@ -8154,7 +8149,7 @@
         <v>38602</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>46</v>
@@ -8176,7 +8171,7 @@
         <v>38625</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>163</v>
@@ -8196,7 +8191,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="48"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>38626</v>
       </c>
@@ -8222,7 +8217,7 @@
         <v>38637</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>46</v>
@@ -8244,7 +8239,7 @@
         <v>38646</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>164</v>
@@ -8264,7 +8259,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="48"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>38657</v>
       </c>
@@ -8288,7 +8283,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>38687</v>
       </c>
@@ -8308,7 +8303,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="47" t="s">
         <v>167</v>
       </c>
@@ -8326,7 +8321,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>38718</v>
       </c>
@@ -8352,7 +8347,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>48</v>
@@ -8374,7 +8369,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>46</v>
@@ -8396,7 +8391,7 @@
         <v>38741</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>54</v>
@@ -8418,7 +8413,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>170</v>
@@ -8438,7 +8433,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>38749</v>
       </c>
@@ -8464,7 +8459,7 @@
         <v>38757</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>38777</v>
       </c>
@@ -8490,7 +8485,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>46</v>
@@ -8512,7 +8507,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>174</v>
@@ -8530,7 +8525,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>175</v>
@@ -8550,7 +8545,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>38808</v>
       </c>
@@ -8574,7 +8569,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>38838</v>
       </c>
@@ -8598,7 +8593,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>38869</v>
       </c>
@@ -8622,7 +8617,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>38899</v>
       </c>
@@ -8646,7 +8641,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>38930</v>
       </c>
@@ -8672,7 +8667,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>46</v>
@@ -8694,7 +8689,7 @@
         <v>38922</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>46</v>
@@ -8716,7 +8711,7 @@
         <v>38929</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>46</v>
@@ -8738,7 +8733,7 @@
         <v>38945</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>180</v>
@@ -8756,7 +8751,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>38961</v>
       </c>
@@ -8780,7 +8775,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38991</v>
       </c>
@@ -8804,7 +8799,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>183</v>
@@ -8824,7 +8819,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>39022</v>
       </c>
@@ -8850,7 +8845,7 @@
         <v>39027</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>184</v>
@@ -8870,7 +8865,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="48"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>46</v>
@@ -8892,7 +8887,7 @@
         <v>39062</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>46</v>
@@ -8914,7 +8909,7 @@
         <v>39069</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>185</v>
@@ -8934,7 +8929,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="48"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>39052</v>
       </c>
@@ -8958,7 +8953,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="47" t="s">
         <v>187</v>
       </c>
@@ -8976,7 +8971,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>39083</v>
       </c>
@@ -9000,7 +8995,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>39114</v>
       </c>
@@ -9024,7 +9019,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39142</v>
       </c>
@@ -9048,7 +9043,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>190</v>
@@ -9068,7 +9063,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39173</v>
       </c>
@@ -9092,7 +9087,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>54</v>
@@ -9114,7 +9109,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>192</v>
@@ -9134,7 +9129,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>39203</v>
       </c>
@@ -9158,7 +9153,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39234</v>
       </c>
@@ -9182,7 +9177,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>39264</v>
       </c>
@@ -9208,7 +9203,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>46</v>
@@ -9230,7 +9225,7 @@
         <v>39275</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>46</v>
@@ -9252,7 +9247,7 @@
         <v>39279</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>197</v>
@@ -9272,7 +9267,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>39295</v>
       </c>
@@ -9296,7 +9291,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>39326</v>
       </c>
@@ -9320,7 +9315,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>39356</v>
       </c>
@@ -9346,7 +9341,7 @@
         <v>39379</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>200</v>
@@ -9366,7 +9361,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="48"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>39387</v>
       </c>
@@ -9390,7 +9385,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>39417</v>
       </c>
@@ -9414,7 +9409,7 @@
       <c r="J238" s="12"/>
       <c r="K238" s="15"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="47" t="s">
         <v>203</v>
       </c>
@@ -9423,7 +9418,7 @@
       <c r="D239" s="42"/>
       <c r="E239" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>23.347999999999836</v>
+        <v>24.597999999999836</v>
       </c>
       <c r="F239" s="15"/>
       <c r="G239" s="41" t="str">
@@ -9433,12 +9428,12 @@
       <c r="H239" s="42"/>
       <c r="I239" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>128.75</v>
+        <v>129</v>
       </c>
       <c r="J239" s="12"/>
       <c r="K239" s="15"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39448</v>
       </c>
@@ -9462,7 +9457,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>39479</v>
       </c>
@@ -9486,7 +9481,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>39508</v>
       </c>
@@ -9510,7 +9505,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>39539</v>
       </c>
@@ -9534,7 +9529,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39569</v>
       </c>
@@ -9558,7 +9553,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>39600</v>
       </c>
@@ -9582,7 +9577,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>39630</v>
       </c>
@@ -9606,7 +9601,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>39661</v>
       </c>
@@ -9630,7 +9625,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>46</v>
@@ -9652,7 +9647,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>212</v>
@@ -9672,7 +9667,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="48"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>39692</v>
       </c>
@@ -9696,7 +9691,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>39722</v>
       </c>
@@ -9720,7 +9715,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>39753</v>
       </c>
@@ -9744,7 +9739,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39783</v>
       </c>
@@ -9768,7 +9763,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="47" t="s">
         <v>216</v>
       </c>
@@ -9786,7 +9781,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>39814</v>
       </c>
@@ -9810,7 +9805,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>39845</v>
       </c>
@@ -9834,7 +9829,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>39873</v>
       </c>
@@ -9858,7 +9853,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>39904</v>
       </c>
@@ -9882,7 +9877,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>111</v>
@@ -9904,7 +9899,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>39934</v>
       </c>
@@ -9928,7 +9923,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>46</v>
@@ -9950,7 +9945,7 @@
         <v>39940</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>39965</v>
       </c>
@@ -9974,7 +9969,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>46</v>
@@ -9996,7 +9991,7 @@
         <v>39975</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>222</v>
@@ -10016,7 +10011,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>39995</v>
       </c>
@@ -10040,7 +10035,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>46</v>
@@ -10062,7 +10057,7 @@
         <v>40025</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>40026</v>
       </c>
@@ -10086,7 +10081,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>40057</v>
       </c>
@@ -10110,7 +10105,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>40087</v>
       </c>
@@ -10136,7 +10131,7 @@
         <v>40085</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>227</v>
@@ -10156,7 +10151,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="48"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>40118</v>
       </c>
@@ -10180,7 +10175,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>229</v>
@@ -10200,7 +10195,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>40148</v>
       </c>
@@ -10224,7 +10219,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="47" t="s">
         <v>231</v>
       </c>
@@ -10242,7 +10237,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>40179</v>
       </c>
@@ -10266,7 +10261,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>40210</v>
       </c>
@@ -10290,7 +10285,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>46</v>
@@ -10312,7 +10307,7 @@
         <v>40221</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>46</v>
@@ -10334,7 +10329,7 @@
         <v>40228</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>54</v>
@@ -10356,7 +10351,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>235</v>
@@ -10376,7 +10371,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>40238</v>
       </c>
@@ -10400,7 +10395,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>40269</v>
       </c>
@@ -10426,7 +10421,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>40299</v>
       </c>
@@ -10452,7 +10447,7 @@
         <v>40283</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>46</v>
@@ -10474,7 +10469,7 @@
         <v>40305</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>238</v>
@@ -10494,7 +10489,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="48"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>40330</v>
       </c>
@@ -10518,7 +10513,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>111</v>
@@ -10540,7 +10535,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>40360</v>
       </c>
@@ -10564,7 +10559,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>46</v>
@@ -10586,7 +10581,7 @@
         <v>40389</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>40391</v>
       </c>
@@ -10612,7 +10607,7 @@
         <v>40417</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>242</v>
@@ -10632,7 +10627,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="48"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>40422</v>
       </c>
@@ -10658,7 +10653,7 @@
         <v>40427</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>243</v>
@@ -10678,7 +10673,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="48"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>40452</v>
       </c>
@@ -10702,7 +10697,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40483</v>
       </c>
@@ -10726,7 +10721,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>40513</v>
       </c>
@@ -10750,7 +10745,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>247</v>
@@ -10770,7 +10765,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="47" t="s">
         <v>248</v>
       </c>
@@ -10788,7 +10783,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>40544</v>
       </c>
@@ -10812,7 +10807,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>46</v>
@@ -10834,7 +10829,7 @@
         <v>40553</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>114</v>
@@ -10854,7 +10849,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="48"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>40575</v>
       </c>
@@ -10878,7 +10873,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40603</v>
       </c>
@@ -10902,7 +10897,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>40634</v>
       </c>
@@ -10926,7 +10921,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>40664</v>
       </c>
@@ -10950,7 +10945,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>46</v>
@@ -10972,7 +10967,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>40695</v>
       </c>
@@ -10996,7 +10991,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>255</v>
@@ -11016,7 +11011,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>40725</v>
       </c>
@@ -11042,7 +11037,7 @@
         <v>40753</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>40756</v>
       </c>
@@ -11066,7 +11061,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>40787</v>
       </c>
@@ -11090,7 +11085,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>40817</v>
       </c>
@@ -11114,7 +11109,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>40848</v>
       </c>
@@ -11140,7 +11135,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>260</v>
@@ -11160,7 +11155,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="48"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>40878</v>
       </c>
@@ -11186,7 +11181,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>114</v>
@@ -11206,7 +11201,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="47" t="s">
         <v>262</v>
       </c>
@@ -11224,7 +11219,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40909</v>
       </c>
@@ -11248,7 +11243,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>81</v>
@@ -11268,7 +11263,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>40940</v>
       </c>
@@ -11292,7 +11287,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>40969</v>
       </c>
@@ -11318,7 +11313,7 @@
         <v>40988</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>264</v>
@@ -11338,7 +11333,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="48"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>41000</v>
       </c>
@@ -11362,7 +11357,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>41030</v>
       </c>
@@ -11388,7 +11383,7 @@
         <v>41032</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>111</v>
@@ -11410,7 +11405,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>267</v>
@@ -11430,7 +11425,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="48"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>41061</v>
       </c>
@@ -11456,7 +11451,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>138</v>
@@ -11476,7 +11471,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>46</v>
@@ -11498,7 +11493,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>54</v>
@@ -11520,7 +11515,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>270</v>
@@ -11540,7 +11535,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>41091</v>
       </c>
@@ -11560,7 +11555,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>41122</v>
       </c>
@@ -11586,7 +11581,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>273</v>
@@ -11606,7 +11601,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>41153</v>
       </c>
@@ -11632,7 +11627,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>54</v>
@@ -11654,7 +11649,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>274</v>
@@ -11674,7 +11669,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>41183</v>
       </c>
@@ -11700,7 +11695,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>277</v>
@@ -11718,7 +11713,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41214</v>
       </c>
@@ -11742,7 +11737,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>41244</v>
       </c>
@@ -11768,7 +11763,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>54</v>
@@ -11790,7 +11785,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>165</v>
@@ -11810,7 +11805,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>282</v>
@@ -11830,7 +11825,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="47" t="s">
         <v>281</v>
       </c>
@@ -11848,7 +11843,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>41275</v>
       </c>
@@ -11868,7 +11863,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>41306</v>
       </c>
@@ -11892,7 +11887,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>41334</v>
       </c>
@@ -11918,7 +11913,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>285</v>
@@ -11938,7 +11933,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>41365</v>
       </c>
@@ -11962,7 +11957,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>41395</v>
       </c>
@@ -11986,7 +11981,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>41426</v>
       </c>
@@ -12012,7 +12007,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>67</v>
@@ -12032,7 +12027,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>288</v>
@@ -12052,7 +12047,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="48"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>41456</v>
       </c>
@@ -12076,7 +12071,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>41487</v>
       </c>
@@ -12100,7 +12095,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>67</v>
@@ -12120,7 +12115,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>292</v>
@@ -12140,7 +12135,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>41518</v>
       </c>
@@ -12160,7 +12155,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>41548</v>
       </c>
@@ -12184,7 +12179,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>41579</v>
       </c>
@@ -12208,7 +12203,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>41609</v>
       </c>
@@ -12232,7 +12227,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>142</v>
@@ -12252,7 +12247,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="47" t="s">
         <v>297</v>
       </c>
@@ -12270,7 +12265,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>41640</v>
       </c>
@@ -12294,7 +12289,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>41671</v>
       </c>
@@ -12320,7 +12315,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>41699</v>
       </c>
@@ -12346,7 +12341,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>64</v>
@@ -12368,7 +12363,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>301</v>
@@ -12388,7 +12383,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="48"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>41730</v>
       </c>
@@ -12412,7 +12407,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>46</v>
@@ -12434,7 +12429,7 @@
         <v>41743</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>138</v>
@@ -12454,7 +12449,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>46</v>
@@ -12476,7 +12471,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>64</v>
@@ -12498,7 +12493,7 @@
         <v>41799</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>303</v>
@@ -12518,7 +12513,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="48"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>41760</v>
       </c>
@@ -12542,7 +12537,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>41791</v>
       </c>
@@ -12566,7 +12561,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>41821</v>
       </c>
@@ -12592,7 +12587,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>64</v>
@@ -12614,7 +12609,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>307</v>
@@ -12634,7 +12629,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>41852</v>
       </c>
@@ -12660,7 +12655,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>309</v>
@@ -12680,7 +12675,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="48"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>41883</v>
       </c>
@@ -12706,7 +12701,7 @@
         <v>41887</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>64</v>
@@ -12728,7 +12723,7 @@
         <v>41915</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>310</v>
@@ -12748,7 +12743,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="48"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>41913</v>
       </c>
@@ -12774,7 +12769,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>312</v>
@@ -12794,7 +12789,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>41944</v>
       </c>
@@ -12820,7 +12815,7 @@
         <v>41950</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>64</v>
@@ -12840,7 +12835,7 @@
         <v>41950</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>313</v>
@@ -12862,7 +12857,7 @@
         <v>41978</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>41974</v>
       </c>
@@ -12886,7 +12881,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="47" t="s">
         <v>315</v>
       </c>
@@ -12904,7 +12899,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>42005</v>
       </c>
@@ -12928,7 +12923,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>213</v>
@@ -12948,7 +12943,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>42036</v>
       </c>
@@ -12974,7 +12969,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>64</v>
@@ -12996,7 +12991,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>317</v>
@@ -13016,7 +13011,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>42064</v>
       </c>
@@ -13040,7 +13035,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>318</v>
@@ -13060,7 +13055,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>42095</v>
       </c>
@@ -13086,7 +13081,7 @@
         <v>42102</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>67</v>
@@ -13106,7 +13101,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>320</v>
@@ -13126,7 +13121,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>42125</v>
       </c>
@@ -13150,7 +13145,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>42156</v>
       </c>
@@ -13176,7 +13171,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>324</v>
@@ -13196,7 +13191,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42186</v>
       </c>
@@ -13220,7 +13215,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>42217</v>
       </c>
@@ -13246,7 +13241,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>327</v>
@@ -13266,7 +13261,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>42248</v>
       </c>
@@ -13292,7 +13287,7 @@
         <v>42268</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>328</v>
@@ -13312,7 +13307,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="48"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>42278</v>
       </c>
@@ -13338,7 +13333,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>329</v>
@@ -13358,7 +13353,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="48"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42309</v>
       </c>
@@ -13384,7 +13379,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>62</v>
@@ -13406,7 +13401,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>46</v>
@@ -13428,7 +13423,7 @@
         <v>42328</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>331</v>
@@ -13448,7 +13443,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>42339</v>
       </c>
@@ -13472,7 +13467,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="47" t="s">
         <v>334</v>
       </c>
@@ -13490,7 +13485,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>42370</v>
       </c>
@@ -13514,7 +13509,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>335</v>
@@ -13534,7 +13529,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42401</v>
       </c>
@@ -13560,7 +13555,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>337</v>
@@ -13580,7 +13575,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>42430</v>
       </c>
@@ -13604,7 +13599,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42461</v>
       </c>
@@ -13630,7 +13625,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>340</v>
@@ -13650,7 +13645,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="48"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>42491</v>
       </c>
@@ -13676,7 +13671,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>333</v>
@@ -13696,7 +13691,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="48"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>42522</v>
       </c>
@@ -13722,7 +13717,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>67</v>
@@ -13742,7 +13737,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>46</v>
@@ -13764,7 +13759,7 @@
         <v>42549</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>342</v>
@@ -13784,7 +13779,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>42552</v>
       </c>
@@ -13810,7 +13805,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>344</v>
@@ -13830,7 +13825,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42583</v>
       </c>
@@ -13856,7 +13851,7 @@
         <v>42608</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>345</v>
@@ -13876,7 +13871,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="48"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>42614</v>
       </c>
@@ -13900,7 +13895,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>42644</v>
       </c>
@@ -13926,7 +13921,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>347</v>
@@ -13946,7 +13941,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>42675</v>
       </c>
@@ -13972,7 +13967,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>54</v>
@@ -13994,7 +13989,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>351</v>
@@ -14014,7 +14009,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>42705</v>
       </c>
@@ -14038,7 +14033,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="47" t="s">
         <v>353</v>
       </c>
@@ -14056,7 +14051,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>42736</v>
       </c>
@@ -14082,7 +14077,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>67</v>
@@ -14102,7 +14097,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>354</v>
@@ -14122,7 +14117,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>42767</v>
       </c>
@@ -14146,7 +14141,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>42795</v>
       </c>
@@ -14172,7 +14167,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>46</v>
@@ -14194,7 +14189,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>46</v>
@@ -14216,7 +14211,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>358</v>
@@ -14236,7 +14231,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>42826</v>
       </c>
@@ -14260,7 +14255,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>46</v>
@@ -14280,7 +14275,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>360</v>
@@ -14300,7 +14295,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42856</v>
       </c>
@@ -14326,7 +14321,7 @@
         <v>42865</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>215</v>
@@ -14346,7 +14341,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="48"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42887</v>
       </c>
@@ -14372,7 +14367,7 @@
         <v>42891</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>42917</v>
       </c>
@@ -14398,7 +14393,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>46</v>
@@ -14420,7 +14415,7 @@
         <v>42969</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>84</v>
@@ -14438,7 +14433,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>42948</v>
       </c>
@@ -14462,7 +14457,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>42979</v>
       </c>
@@ -14488,7 +14483,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>364</v>
@@ -14508,7 +14503,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43009</v>
       </c>
@@ -14534,7 +14529,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>62</v>
@@ -14556,7 +14551,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>366</v>
@@ -14574,12 +14569,12 @@
       <c r="H466" s="39"/>
       <c r="I466" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>128.75</v>
+        <v>129</v>
       </c>
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43040</v>
       </c>
@@ -14599,7 +14594,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43070</v>
       </c>
@@ -14625,7 +14620,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>46</v>
@@ -14647,7 +14642,7 @@
         <v>43076</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="47" t="s">
         <v>368</v>
       </c>
@@ -14665,7 +14660,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="48"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43101</v>
       </c>
@@ -14689,7 +14684,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>43132</v>
       </c>
@@ -14709,7 +14704,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43160</v>
       </c>
@@ -14729,7 +14724,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43191</v>
       </c>
@@ -14753,7 +14748,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43221</v>
       </c>
@@ -14779,7 +14774,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>51</v>
@@ -14801,7 +14796,7 @@
         <v>43245</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>372</v>
@@ -14821,7 +14816,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43252</v>
       </c>
@@ -14845,7 +14840,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43282</v>
       </c>
@@ -14871,7 +14866,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>46</v>
@@ -14893,7 +14888,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>375</v>
@@ -14913,7 +14908,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43313</v>
       </c>
@@ -14939,7 +14934,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>51</v>
@@ -14961,7 +14956,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>76</v>
@@ -14981,7 +14976,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43344</v>
       </c>
@@ -15001,7 +14996,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="48"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>43374</v>
       </c>
@@ -15027,7 +15022,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>376</v>
@@ -15047,7 +15042,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="48"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43405</v>
       </c>
@@ -15073,7 +15068,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>51</v>
@@ -15095,7 +15090,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43435</v>
       </c>
@@ -15121,7 +15116,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>46</v>
@@ -15143,7 +15138,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>362</v>
@@ -15163,7 +15158,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="47" t="s">
         <v>377</v>
       </c>
@@ -15181,7 +15176,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43466</v>
       </c>
@@ -15207,7 +15202,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43497</v>
       </c>
@@ -15227,7 +15222,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>43525</v>
       </c>
@@ -15253,7 +15248,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>379</v>
@@ -15273,7 +15268,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="48"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>43556</v>
       </c>
@@ -15299,7 +15294,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>46</v>
@@ -15321,7 +15316,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>376</v>
@@ -15341,7 +15336,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43586</v>
       </c>
@@ -15365,7 +15360,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43617</v>
       </c>
@@ -15389,7 +15384,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>383</v>
@@ -15409,7 +15404,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>43647</v>
       </c>
@@ -15433,7 +15428,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>43678</v>
       </c>
@@ -15459,7 +15454,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>43709</v>
       </c>
@@ -15485,7 +15480,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>43739</v>
       </c>
@@ -15511,7 +15506,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>43770</v>
       </c>
@@ -15537,7 +15532,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43800</v>
       </c>
@@ -15563,7 +15558,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>51</v>
@@ -15585,7 +15580,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>46</v>
@@ -15607,7 +15602,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="47" t="s">
         <v>388</v>
       </c>
@@ -15625,7 +15620,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="48"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43831</v>
       </c>
@@ -15649,7 +15644,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>390</v>
@@ -15669,7 +15664,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>43862</v>
       </c>
@@ -15689,7 +15684,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>43891</v>
       </c>
@@ -15709,7 +15704,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>43922</v>
       </c>
@@ -15729,7 +15724,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>43952</v>
       </c>
@@ -15749,7 +15744,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>43983</v>
       </c>
@@ -15769,7 +15764,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44013</v>
       </c>
@@ -15789,7 +15784,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>44044</v>
       </c>
@@ -15809,7 +15804,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44075</v>
       </c>
@@ -15833,7 +15828,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>54</v>
@@ -15855,7 +15850,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44105</v>
       </c>
@@ -15875,7 +15870,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>44136</v>
       </c>
@@ -15895,7 +15890,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44166</v>
       </c>
@@ -15921,7 +15916,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>62</v>
@@ -15943,7 +15938,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>296</v>
@@ -15963,7 +15958,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="47" t="s">
         <v>396</v>
       </c>
@@ -15981,7 +15976,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44197</v>
       </c>
@@ -16001,7 +15996,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44228</v>
       </c>
@@ -16025,7 +16020,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>44256</v>
       </c>
@@ -16045,7 +16040,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44287</v>
       </c>
@@ -16069,7 +16064,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44317</v>
       </c>
@@ -16089,7 +16084,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44348</v>
       </c>
@@ -16109,7 +16104,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44378</v>
       </c>
@@ -16129,7 +16124,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44409</v>
       </c>
@@ -16149,7 +16144,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44440</v>
       </c>
@@ -16169,7 +16164,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>44470</v>
       </c>
@@ -16193,7 +16188,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>51</v>
@@ -16215,7 +16210,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>51</v>
@@ -16235,7 +16230,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>46</v>
@@ -16257,7 +16252,7 @@
         <v>44522</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>62</v>
@@ -16279,7 +16274,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44501</v>
       </c>
@@ -16299,7 +16294,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44531</v>
       </c>
@@ -16325,7 +16320,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="47" t="s">
         <v>402</v>
       </c>
@@ -16343,7 +16338,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44562</v>
       </c>
@@ -16363,7 +16358,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44593</v>
       </c>
@@ -16383,7 +16378,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44621</v>
       </c>
@@ -16403,7 +16398,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44652</v>
       </c>
@@ -16423,7 +16418,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44682</v>
       </c>
@@ -16447,7 +16442,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>62</v>
@@ -16469,7 +16464,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>67</v>
@@ -16489,7 +16484,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>62</v>
@@ -16511,7 +16506,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44713</v>
       </c>
@@ -16537,7 +16532,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>54</v>
@@ -16559,7 +16554,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>44743</v>
       </c>
@@ -16579,7 +16574,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44774</v>
       </c>
@@ -16605,7 +16600,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>44805</v>
       </c>
@@ -16631,7 +16626,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44835</v>
       </c>
@@ -16657,7 +16652,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>44866</v>
       </c>
@@ -16683,7 +16678,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>44896</v>
       </c>
@@ -16709,7 +16704,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="47" t="s">
         <v>290</v>
       </c>
@@ -16727,7 +16722,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>44927</v>
       </c>
@@ -16751,7 +16746,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>44958</v>
       </c>
@@ -16771,7 +16766,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>44986</v>
       </c>
@@ -16797,7 +16792,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>67</v>
@@ -16817,22 +16812,24 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45017</v>
       </c>
       <c r="B568" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="C568" s="13"/>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D568" s="39">
         <v>3</v>
       </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G568" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
@@ -16841,11 +16838,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A569" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B569" s="20"/>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569" s="40"/>
+      <c r="B569" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C569" s="13"/>
       <c r="D569" s="39"/>
       <c r="E569" s="9"/>
@@ -16854,14 +16851,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H569" s="39"/>
+      <c r="H569" s="39">
+        <v>1</v>
+      </c>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
-    </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K569" s="48">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16877,9 +16878,9 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16895,9 +16896,9 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16913,9 +16914,9 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16931,9 +16932,9 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16949,9 +16950,9 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16967,9 +16968,9 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16985,9 +16986,9 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -17003,9 +17004,9 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -17021,9 +17022,9 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -17039,8 +17040,10 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A580" s="40"/>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" s="40">
+        <v>45352</v>
+      </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
@@ -17055,7 +17058,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17071,7 +17074,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17087,7 +17090,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17103,7 +17106,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17119,7 +17122,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17135,7 +17138,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17151,7 +17154,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17167,7 +17170,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17183,7 +17186,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17199,7 +17202,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17215,7 +17218,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17231,7 +17234,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17247,7 +17250,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17263,7 +17266,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17279,7 +17282,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17295,7 +17298,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17311,7 +17314,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17327,7 +17330,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17343,7 +17346,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17359,7 +17362,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17375,7 +17378,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17391,7 +17394,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17407,7 +17410,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17423,7 +17426,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17439,7 +17442,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17455,7 +17458,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17471,7 +17474,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17487,7 +17490,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17503,7 +17506,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17519,7 +17522,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17535,7 +17538,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17551,7 +17554,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17567,7 +17570,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17583,7 +17586,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17599,7 +17602,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17615,7 +17618,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17631,7 +17634,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17647,7 +17650,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17663,7 +17666,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17679,7 +17682,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17695,7 +17698,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17711,7 +17714,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17727,7 +17730,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17743,21 +17746,37 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A624" s="49"/>
-      <c r="B624" s="15"/>
-      <c r="C624" s="41"/>
-      <c r="D624" s="42"/>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624" s="40"/>
+      <c r="B624" s="20"/>
+      <c r="C624" s="13"/>
+      <c r="D624" s="39"/>
       <c r="E624" s="9"/>
-      <c r="F624" s="15"/>
-      <c r="G624" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H624" s="42"/>
+      <c r="F624" s="20"/>
+      <c r="G624" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H624" s="39"/>
       <c r="I624" s="9"/>
-      <c r="J624" s="12"/>
-      <c r="K624" s="15"/>
+      <c r="J624" s="11"/>
+      <c r="K624" s="20"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A625" s="49"/>
+      <c r="B625" s="15"/>
+      <c r="C625" s="41"/>
+      <c r="D625" s="42"/>
+      <c r="E625" s="9"/>
+      <c r="F625" s="15"/>
+      <c r="G625" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H625" s="42"/>
+      <c r="I625" s="9"/>
+      <c r="J625" s="12"/>
+      <c r="K625" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17774,10 +17793,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17800,7 +17819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17808,21 +17827,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -17835,7 +17854,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17864,7 +17883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>12.840999999999999</v>
       </c>
@@ -17892,17 +17911,17 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17923,7 +17942,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17950,7 +17969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17976,7 +17995,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18002,7 +18021,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18028,7 +18047,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18054,7 +18073,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18080,7 +18099,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18106,7 +18125,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18132,7 +18151,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18152,7 +18171,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18172,7 +18191,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18192,7 +18211,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18213,7 +18232,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18234,7 +18253,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18255,7 +18274,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18276,7 +18295,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18297,7 +18316,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18318,7 +18337,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18339,7 +18358,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18360,7 +18379,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18381,7 +18400,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18402,7 +18421,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18423,7 +18442,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18444,7 +18463,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18465,7 +18484,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18486,7 +18505,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18507,7 +18526,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18528,7 +18547,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18549,7 +18568,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18570,7 +18589,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18591,7 +18610,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18612,7 +18631,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18621,7 +18640,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18630,7 +18649,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18639,7 +18658,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18648,7 +18667,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18657,7 +18676,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18666,7 +18685,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18675,7 +18694,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18684,7 +18703,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18693,7 +18712,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18702,7 +18721,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18711,7 +18730,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18720,7 +18739,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18729,7 +18748,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18738,7 +18757,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18747,7 +18766,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18756,7 +18775,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18765,7 +18784,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18774,7 +18793,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18783,7 +18802,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18792,7 +18811,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18801,7 +18820,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18810,7 +18829,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18819,7 +18838,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18828,7 +18847,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18837,7 +18856,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18846,7 +18865,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18855,7 +18874,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18864,7 +18883,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18873,7 +18892,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ENMACINO, LEILA ANGCAYA.xlsx
+++ b/REGULAR/ENMACINO, LEILA ANGCAYA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3359F56F-0B54-444A-949C-F5B6D88634E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="413">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1270,12 +1271,15 @@
   </si>
   <si>
     <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>ADMIN OFFICER IV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2135,7 +2139,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2182,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2246,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2306,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2372,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2435,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2533,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2592,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2657,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,7 +2700,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2775,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2961,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3027,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3085,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3147,7 +3151,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,7 +3207,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3282,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3321,7 +3325,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3387,7 +3391,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3443,7 +3447,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3541,7 +3545,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3604,7 +3608,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3670,25 +3674,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K625" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K625" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K625" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3700,12 +3705,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3714,13 +3719,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4024,7 +4029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4034,7 +4039,7 @@
       <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4042,34 +4047,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A557" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="I570" sqref="I570"/>
+      <pane ySplit="3696" topLeftCell="A557" activePane="bottomLeft"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
+      <selection pane="bottomLeft" activeCell="B571" sqref="B571"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4090,11 +4095,13 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>412</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -4108,7 +4115,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4130,7 +4137,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4138,7 +4145,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4151,7 +4158,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -4168,7 +4175,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +4210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4212,7 +4219,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.597999999999836</v>
+        <v>13.798999999999742</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4222,12 +4229,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -4249,7 +4256,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4275,7 +4282,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4297,7 +4304,7 @@
         <v>35815</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>47</v>
@@ -4317,7 +4324,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35827</v>
       </c>
@@ -4341,7 +4348,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>50</v>
@@ -4361,7 +4368,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35855</v>
       </c>
@@ -4387,7 +4394,7 @@
         <v>35850</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>51</v>
@@ -4409,7 +4416,7 @@
         <v>35856</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>46</v>
@@ -4431,7 +4438,7 @@
         <v>35874</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>52</v>
@@ -4451,7 +4458,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>35886</v>
       </c>
@@ -4477,7 +4484,7 @@
         <v>35915</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>53</v>
@@ -4497,7 +4504,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>35916</v>
       </c>
@@ -4523,7 +4530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="15" t="s">
         <v>56</v>
@@ -4543,7 +4550,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>35947</v>
       </c>
@@ -4567,7 +4574,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>35977</v>
       </c>
@@ -4587,7 +4594,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36008</v>
       </c>
@@ -4611,7 +4618,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36039</v>
       </c>
@@ -4637,7 +4644,7 @@
         <v>36040</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -4657,7 +4664,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="48"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36069</v>
       </c>
@@ -4681,7 +4688,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>36100</v>
       </c>
@@ -4707,7 +4714,7 @@
         <v>36124</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>46</v>
@@ -4729,7 +4736,7 @@
         <v>36122</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>61</v>
@@ -4749,7 +4756,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="48"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36130</v>
       </c>
@@ -4775,7 +4782,7 @@
         <v>36144</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>62</v>
@@ -4797,7 +4804,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>64</v>
@@ -4817,7 +4824,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="48"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>65</v>
       </c>
@@ -4835,7 +4842,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="48"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36161</v>
       </c>
@@ -4859,7 +4866,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36192</v>
       </c>
@@ -4883,7 +4890,7 @@
         <v>36193</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36220</v>
       </c>
@@ -4907,7 +4914,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36251</v>
       </c>
@@ -4933,7 +4940,7 @@
         <v>36280</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>69</v>
@@ -4953,7 +4960,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="48"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36281</v>
       </c>
@@ -4979,7 +4986,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>67</v>
@@ -4999,7 +5006,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>70</v>
@@ -5019,7 +5026,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36312</v>
       </c>
@@ -5043,7 +5050,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36342</v>
       </c>
@@ -5067,7 +5074,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36373</v>
       </c>
@@ -5093,7 +5100,7 @@
         <v>36402</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36404</v>
       </c>
@@ -5117,7 +5124,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36434</v>
       </c>
@@ -5141,7 +5148,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36465</v>
       </c>
@@ -5165,7 +5172,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>36495</v>
       </c>
@@ -5191,7 +5198,7 @@
         <v>36511</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>51</v>
@@ -5213,7 +5220,7 @@
         <v>36514</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>51</v>
@@ -5235,7 +5242,7 @@
         <v>36521</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -5255,7 +5262,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>77</v>
       </c>
@@ -5273,7 +5280,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>36526</v>
       </c>
@@ -5297,7 +5304,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>36557</v>
       </c>
@@ -5321,7 +5328,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>36586</v>
       </c>
@@ -5347,7 +5354,7 @@
         <v>36598</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>80</v>
@@ -5367,7 +5374,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="48"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>36617</v>
       </c>
@@ -5393,7 +5400,7 @@
         <v>36641</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>81</v>
@@ -5413,7 +5420,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="48"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36647</v>
       </c>
@@ -5439,7 +5446,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>83</v>
@@ -5459,7 +5466,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>36678</v>
       </c>
@@ -5483,7 +5490,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>36708</v>
       </c>
@@ -5509,7 +5516,7 @@
         <v>36710</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>67</v>
@@ -5529,7 +5536,7 @@
         <v>36712</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>67</v>
@@ -5549,7 +5556,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>36739</v>
       </c>
@@ -5575,7 +5582,7 @@
         <v>36760</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>86</v>
@@ -5595,7 +5602,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="48"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>36770</v>
       </c>
@@ -5619,7 +5626,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>36800</v>
       </c>
@@ -5645,7 +5652,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>89</v>
@@ -5665,7 +5672,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>36831</v>
       </c>
@@ -5691,7 +5698,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>67</v>
@@ -5711,7 +5718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>91</v>
@@ -5731,7 +5738,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>36861</v>
       </c>
@@ -5757,7 +5764,7 @@
         <v>36886</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>92</v>
@@ -5777,7 +5784,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="48"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>93</v>
       </c>
@@ -5795,7 +5802,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36892</v>
       </c>
@@ -5819,7 +5826,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>36923</v>
       </c>
@@ -5845,7 +5852,7 @@
         <v>36938</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>95</v>
@@ -5865,7 +5872,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="48"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>36951</v>
       </c>
@@ -5891,7 +5898,7 @@
         <v>36970</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>46</v>
@@ -5913,7 +5920,7 @@
         <v>36972</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>96</v>
@@ -5933,7 +5940,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="48"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>36982</v>
       </c>
@@ -5957,7 +5964,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>46</v>
@@ -5979,7 +5986,7 @@
         <v>37007</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37012</v>
       </c>
@@ -5999,7 +6006,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37043</v>
       </c>
@@ -6025,7 +6032,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>98</v>
@@ -6045,7 +6052,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37073</v>
       </c>
@@ -6071,13 +6078,15 @@
         <v>37077</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="39"/>
+      <c r="D91" s="39">
+        <v>1.429</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
@@ -6089,7 +6098,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>37104</v>
       </c>
@@ -6115,7 +6124,7 @@
         <v>37117</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>100</v>
@@ -6135,7 +6144,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>37135</v>
       </c>
@@ -6159,7 +6168,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>37165</v>
       </c>
@@ -6183,7 +6192,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>37196</v>
       </c>
@@ -6209,7 +6218,7 @@
         <v>37209</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>51</v>
@@ -6231,7 +6240,7 @@
         <v>37211</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>62</v>
@@ -6253,7 +6262,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>51</v>
@@ -6275,7 +6284,7 @@
         <v>37232</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>104</v>
@@ -6295,7 +6304,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="48"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>37226</v>
       </c>
@@ -6319,7 +6328,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
         <v>106</v>
       </c>
@@ -6337,7 +6346,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>37257</v>
       </c>
@@ -6361,7 +6370,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>37288</v>
       </c>
@@ -6387,7 +6396,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>109</v>
@@ -6407,7 +6416,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="48"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>48</v>
@@ -6427,7 +6436,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37316</v>
       </c>
@@ -6447,7 +6456,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37347</v>
       </c>
@@ -6471,7 +6480,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>37377</v>
       </c>
@@ -6497,7 +6506,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>51</v>
@@ -6519,7 +6528,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>113</v>
@@ -6539,7 +6548,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="48"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>37408</v>
       </c>
@@ -6559,7 +6568,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>37438</v>
       </c>
@@ -6583,7 +6592,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37469</v>
       </c>
@@ -6609,7 +6618,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>116</v>
@@ -6629,7 +6638,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>37500</v>
       </c>
@@ -6655,7 +6664,7 @@
         <v>37516</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>37530</v>
       </c>
@@ -6679,7 +6688,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>37561</v>
       </c>
@@ -6705,7 +6714,7 @@
         <v>37568</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37591</v>
       </c>
@@ -6729,7 +6738,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>118</v>
@@ -6749,7 +6758,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="47" t="s">
         <v>119</v>
       </c>
@@ -6767,7 +6776,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>37622</v>
       </c>
@@ -6793,13 +6802,15 @@
         <v>37635</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>120</v>
       </c>
       <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
+      <c r="D123" s="39">
+        <v>1.0329999999999999</v>
+      </c>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
       <c r="G123" s="13" t="str">
@@ -6811,7 +6822,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="48"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>37653</v>
       </c>
@@ -6831,7 +6842,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>37681</v>
       </c>
@@ -6857,7 +6868,7 @@
         <v>37687</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>121</v>
@@ -6877,7 +6888,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="48"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>37712</v>
       </c>
@@ -6901,7 +6912,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>37742</v>
       </c>
@@ -6925,7 +6936,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>37773</v>
       </c>
@@ -6951,7 +6962,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>37803</v>
       </c>
@@ -6975,7 +6986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>126</v>
@@ -6995,7 +7006,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>37834</v>
       </c>
@@ -7019,7 +7030,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>37865</v>
       </c>
@@ -7043,7 +7054,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>51</v>
@@ -7065,7 +7076,7 @@
         <v>37876</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>67</v>
@@ -7085,7 +7096,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>129</v>
@@ -7105,7 +7116,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="48"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>37895</v>
       </c>
@@ -7131,7 +7142,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>132</v>
@@ -7151,7 +7162,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>37926</v>
       </c>
@@ -7175,7 +7186,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>37956</v>
       </c>
@@ -7201,7 +7212,7 @@
         <v>37958</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>134</v>
@@ -7221,7 +7232,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="48"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="47" t="s">
         <v>135</v>
       </c>
@@ -7239,7 +7250,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="48"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>37987</v>
       </c>
@@ -7259,7 +7270,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>38018</v>
       </c>
@@ -7285,7 +7296,7 @@
         <v>38041</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>136</v>
@@ -7305,7 +7316,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="48"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>38047</v>
       </c>
@@ -7329,7 +7340,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>138</v>
@@ -7349,7 +7360,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>38078</v>
       </c>
@@ -7373,7 +7384,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>38108</v>
       </c>
@@ -7397,7 +7408,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38139</v>
       </c>
@@ -7421,7 +7432,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>38169</v>
       </c>
@@ -7447,7 +7458,7 @@
         <v>38184</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>46</v>
@@ -7469,7 +7480,7 @@
         <v>38194</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>142</v>
@@ -7489,7 +7500,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>38200</v>
       </c>
@@ -7513,7 +7524,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>38231</v>
       </c>
@@ -7537,7 +7548,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>38261</v>
       </c>
@@ -7554,14 +7565,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H156" s="39"/>
+      <c r="H156" s="39">
+        <v>1</v>
+      </c>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
       <c r="K156" s="48">
         <v>38272</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>145</v>
@@ -7581,7 +7594,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="48"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>38292</v>
       </c>
@@ -7605,7 +7618,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>38322</v>
       </c>
@@ -7631,7 +7644,7 @@
         <v>38322</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>67</v>
@@ -7651,7 +7664,7 @@
         <v>38314</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="47" t="s">
         <v>147</v>
       </c>
@@ -7669,7 +7682,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="48"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>38353</v>
       </c>
@@ -7693,7 +7706,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38384</v>
       </c>
@@ -7717,7 +7730,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>38412</v>
       </c>
@@ -7741,7 +7754,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38443</v>
       </c>
@@ -7767,7 +7780,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>53</v>
@@ -7787,7 +7800,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>38473</v>
       </c>
@@ -7813,7 +7826,7 @@
         <v>38485</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>46</v>
@@ -7835,7 +7848,7 @@
         <v>38489</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>54</v>
@@ -7857,7 +7870,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>111</v>
@@ -7879,7 +7892,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>153</v>
@@ -7899,7 +7912,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="48"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>38504</v>
       </c>
@@ -7925,7 +7938,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>54</v>
@@ -7947,7 +7960,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>46</v>
@@ -7969,7 +7982,7 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>138</v>
@@ -7989,7 +8002,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>159</v>
@@ -8009,7 +8022,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="48"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>38534</v>
       </c>
@@ -8035,7 +8048,7 @@
         <v>38560</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>67</v>
@@ -8057,7 +8070,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>160</v>
@@ -8077,7 +8090,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="48"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>38565</v>
       </c>
@@ -8101,7 +8114,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>38596</v>
       </c>
@@ -8127,7 +8140,7 @@
         <v>38615</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>46</v>
@@ -8149,7 +8162,7 @@
         <v>38602</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>46</v>
@@ -8171,7 +8184,7 @@
         <v>38625</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>163</v>
@@ -8191,7 +8204,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="48"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>38626</v>
       </c>
@@ -8217,7 +8230,7 @@
         <v>38637</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>46</v>
@@ -8239,7 +8252,7 @@
         <v>38646</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>164</v>
@@ -8259,7 +8272,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="48"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>38657</v>
       </c>
@@ -8283,7 +8296,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>38687</v>
       </c>
@@ -8303,7 +8316,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="47" t="s">
         <v>167</v>
       </c>
@@ -8321,7 +8334,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>38718</v>
       </c>
@@ -8347,7 +8360,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>48</v>
@@ -8369,7 +8382,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>46</v>
@@ -8391,7 +8404,7 @@
         <v>38741</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>54</v>
@@ -8413,7 +8426,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>170</v>
@@ -8433,7 +8446,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>38749</v>
       </c>
@@ -8459,7 +8472,7 @@
         <v>38757</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>38777</v>
       </c>
@@ -8485,7 +8498,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>46</v>
@@ -8507,13 +8520,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>174</v>
       </c>
       <c r="C199" s="13"/>
-      <c r="D199" s="39"/>
+      <c r="D199" s="39">
+        <v>3.7869999999999999</v>
+      </c>
       <c r="E199" s="9"/>
       <c r="F199" s="20"/>
       <c r="G199" s="13" t="str">
@@ -8525,7 +8540,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>175</v>
@@ -8545,7 +8560,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>38808</v>
       </c>
@@ -8569,7 +8584,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>38838</v>
       </c>
@@ -8593,7 +8608,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>38869</v>
       </c>
@@ -8617,7 +8632,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>38899</v>
       </c>
@@ -8641,7 +8656,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>38930</v>
       </c>
@@ -8667,7 +8682,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>46</v>
@@ -8689,7 +8704,7 @@
         <v>38922</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>46</v>
@@ -8711,7 +8726,7 @@
         <v>38929</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>46</v>
@@ -8733,13 +8748,15 @@
         <v>38945</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>180</v>
       </c>
       <c r="C209" s="13"/>
-      <c r="D209" s="39"/>
+      <c r="D209" s="39">
+        <v>3.0920000000000001</v>
+      </c>
       <c r="E209" s="9"/>
       <c r="F209" s="20"/>
       <c r="G209" s="13" t="str">
@@ -8751,7 +8768,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>38961</v>
       </c>
@@ -8775,7 +8792,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>38991</v>
       </c>
@@ -8799,7 +8816,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>183</v>
@@ -8819,7 +8836,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>39022</v>
       </c>
@@ -8845,7 +8862,7 @@
         <v>39027</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>184</v>
@@ -8865,7 +8882,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="48"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>46</v>
@@ -8887,7 +8904,7 @@
         <v>39062</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>46</v>
@@ -8909,7 +8926,7 @@
         <v>39069</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>185</v>
@@ -8929,7 +8946,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="48"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>39052</v>
       </c>
@@ -8953,7 +8970,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="47" t="s">
         <v>187</v>
       </c>
@@ -8971,7 +8988,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>39083</v>
       </c>
@@ -8995,7 +9012,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>39114</v>
       </c>
@@ -9019,7 +9036,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>39142</v>
       </c>
@@ -9043,7 +9060,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>190</v>
@@ -9063,7 +9080,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>39173</v>
       </c>
@@ -9087,7 +9104,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>54</v>
@@ -9109,7 +9126,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>192</v>
@@ -9129,7 +9146,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>39203</v>
       </c>
@@ -9153,7 +9170,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39234</v>
       </c>
@@ -9177,7 +9194,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>39264</v>
       </c>
@@ -9203,7 +9220,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>46</v>
@@ -9225,7 +9242,7 @@
         <v>39275</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>46</v>
@@ -9247,7 +9264,7 @@
         <v>39279</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>197</v>
@@ -9267,7 +9284,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>39295</v>
       </c>
@@ -9291,7 +9308,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>39326</v>
       </c>
@@ -9315,7 +9332,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>39356</v>
       </c>
@@ -9341,7 +9358,7 @@
         <v>39379</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>200</v>
@@ -9361,7 +9378,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="48"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>39387</v>
       </c>
@@ -9385,7 +9402,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>39417</v>
       </c>
@@ -9409,31 +9426,25 @@
       <c r="J238" s="12"/>
       <c r="K238" s="15"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="47" t="s">
         <v>203</v>
       </c>
       <c r="B239" s="15"/>
       <c r="C239" s="13"/>
       <c r="D239" s="42"/>
-      <c r="E239" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.597999999999836</v>
-      </c>
+      <c r="E239" s="9"/>
       <c r="F239" s="15"/>
       <c r="G239" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H239" s="42"/>
-      <c r="I239" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129</v>
-      </c>
+      <c r="I239" s="9"/>
       <c r="J239" s="12"/>
       <c r="K239" s="15"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>39448</v>
       </c>
@@ -9457,7 +9468,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>39479</v>
       </c>
@@ -9481,7 +9492,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>39508</v>
       </c>
@@ -9505,7 +9516,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>39539</v>
       </c>
@@ -9529,7 +9540,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>39569</v>
       </c>
@@ -9553,7 +9564,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>39600</v>
       </c>
@@ -9577,7 +9588,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>39630</v>
       </c>
@@ -9601,7 +9612,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>39661</v>
       </c>
@@ -9625,7 +9636,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>46</v>
@@ -9647,7 +9658,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>212</v>
@@ -9667,7 +9678,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="48"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>39692</v>
       </c>
@@ -9691,7 +9702,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>39722</v>
       </c>
@@ -9715,7 +9726,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>39753</v>
       </c>
@@ -9739,7 +9750,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>39783</v>
       </c>
@@ -9763,7 +9774,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="47" t="s">
         <v>216</v>
       </c>
@@ -9781,7 +9792,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>39814</v>
       </c>
@@ -9805,7 +9816,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>39845</v>
       </c>
@@ -9829,7 +9840,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>39873</v>
       </c>
@@ -9853,7 +9864,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>39904</v>
       </c>
@@ -9877,7 +9888,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>111</v>
@@ -9899,7 +9910,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>39934</v>
       </c>
@@ -9923,7 +9934,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>46</v>
@@ -9945,7 +9956,7 @@
         <v>39940</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>39965</v>
       </c>
@@ -9969,7 +9980,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>46</v>
@@ -9991,7 +10002,7 @@
         <v>39975</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>222</v>
@@ -10011,7 +10022,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>39995</v>
       </c>
@@ -10035,7 +10046,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>46</v>
@@ -10057,7 +10068,7 @@
         <v>40025</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>40026</v>
       </c>
@@ -10081,7 +10092,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>40057</v>
       </c>
@@ -10105,7 +10116,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>40087</v>
       </c>
@@ -10131,7 +10142,7 @@
         <v>40085</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>227</v>
@@ -10151,7 +10162,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="48"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>40118</v>
       </c>
@@ -10175,7 +10186,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>229</v>
@@ -10195,7 +10206,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>40148</v>
       </c>
@@ -10219,7 +10230,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="47" t="s">
         <v>231</v>
       </c>
@@ -10237,7 +10248,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>40179</v>
       </c>
@@ -10261,7 +10272,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>40210</v>
       </c>
@@ -10285,7 +10296,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>46</v>
@@ -10307,7 +10318,7 @@
         <v>40221</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>46</v>
@@ -10329,7 +10340,7 @@
         <v>40228</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>54</v>
@@ -10351,7 +10362,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>235</v>
@@ -10371,7 +10382,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>40238</v>
       </c>
@@ -10395,7 +10406,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>40269</v>
       </c>
@@ -10421,7 +10432,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>40299</v>
       </c>
@@ -10447,7 +10458,7 @@
         <v>40283</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>46</v>
@@ -10469,7 +10480,7 @@
         <v>40305</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>238</v>
@@ -10489,7 +10500,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="48"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>40330</v>
       </c>
@@ -10513,7 +10524,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>111</v>
@@ -10535,7 +10546,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>40360</v>
       </c>
@@ -10559,7 +10570,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>46</v>
@@ -10581,7 +10592,7 @@
         <v>40389</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>40391</v>
       </c>
@@ -10607,7 +10618,7 @@
         <v>40417</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>242</v>
@@ -10627,7 +10638,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="48"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>40422</v>
       </c>
@@ -10653,7 +10664,7 @@
         <v>40427</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>243</v>
@@ -10673,7 +10684,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="48"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>40452</v>
       </c>
@@ -10697,7 +10708,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>40483</v>
       </c>
@@ -10721,7 +10732,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>40513</v>
       </c>
@@ -10745,7 +10756,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>247</v>
@@ -10765,7 +10776,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="47" t="s">
         <v>248</v>
       </c>
@@ -10783,7 +10794,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>40544</v>
       </c>
@@ -10807,7 +10818,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>46</v>
@@ -10829,7 +10840,7 @@
         <v>40553</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>114</v>
@@ -10849,7 +10860,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="48"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>40575</v>
       </c>
@@ -10873,7 +10884,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>40603</v>
       </c>
@@ -10897,7 +10908,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>40634</v>
       </c>
@@ -10921,7 +10932,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>40664</v>
       </c>
@@ -10945,7 +10956,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>46</v>
@@ -10967,7 +10978,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>40695</v>
       </c>
@@ -10991,7 +11002,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>255</v>
@@ -11011,7 +11022,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>40725</v>
       </c>
@@ -11037,7 +11048,7 @@
         <v>40753</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>40756</v>
       </c>
@@ -11061,7 +11072,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>40787</v>
       </c>
@@ -11085,7 +11096,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>40817</v>
       </c>
@@ -11109,7 +11120,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>40848</v>
       </c>
@@ -11135,7 +11146,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>260</v>
@@ -11155,7 +11166,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="48"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>40878</v>
       </c>
@@ -11181,7 +11192,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>114</v>
@@ -11201,7 +11212,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="47" t="s">
         <v>262</v>
       </c>
@@ -11219,7 +11230,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40909</v>
       </c>
@@ -11243,7 +11254,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>81</v>
@@ -11263,7 +11274,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>40940</v>
       </c>
@@ -11287,7 +11298,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>40969</v>
       </c>
@@ -11313,7 +11324,7 @@
         <v>40988</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>264</v>
@@ -11333,7 +11344,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="48"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>41000</v>
       </c>
@@ -11357,7 +11368,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>41030</v>
       </c>
@@ -11383,7 +11394,7 @@
         <v>41032</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>111</v>
@@ -11405,7 +11416,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>267</v>
@@ -11425,7 +11436,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="48"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>41061</v>
       </c>
@@ -11451,7 +11462,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>138</v>
@@ -11471,7 +11482,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>46</v>
@@ -11493,7 +11504,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>54</v>
@@ -11515,7 +11526,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>270</v>
@@ -11535,7 +11546,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>41091</v>
       </c>
@@ -11555,7 +11566,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>41122</v>
       </c>
@@ -11581,7 +11592,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>273</v>
@@ -11601,7 +11612,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>41153</v>
       </c>
@@ -11627,7 +11638,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>54</v>
@@ -11649,7 +11660,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>274</v>
@@ -11669,7 +11680,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>41183</v>
       </c>
@@ -11695,13 +11706,15 @@
         <v>276</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>277</v>
       </c>
       <c r="C339" s="13"/>
-      <c r="D339" s="39"/>
+      <c r="D339" s="39">
+        <v>1.25</v>
+      </c>
       <c r="E339" s="9"/>
       <c r="F339" s="20"/>
       <c r="G339" s="13" t="str">
@@ -11713,7 +11726,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>41214</v>
       </c>
@@ -11737,7 +11750,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>41244</v>
       </c>
@@ -11763,7 +11776,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>54</v>
@@ -11785,7 +11798,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>165</v>
@@ -11805,7 +11818,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>282</v>
@@ -11825,7 +11838,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="47" t="s">
         <v>281</v>
       </c>
@@ -11843,7 +11856,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>41275</v>
       </c>
@@ -11863,7 +11876,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>41306</v>
       </c>
@@ -11887,7 +11900,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>41334</v>
       </c>
@@ -11913,7 +11926,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>285</v>
@@ -11933,7 +11946,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>41365</v>
       </c>
@@ -11957,7 +11970,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>41395</v>
       </c>
@@ -11981,7 +11994,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>41426</v>
       </c>
@@ -12007,7 +12020,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>67</v>
@@ -12027,7 +12040,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>288</v>
@@ -12047,7 +12060,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="48"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>41456</v>
       </c>
@@ -12071,7 +12084,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>41487</v>
       </c>
@@ -12095,7 +12108,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>67</v>
@@ -12115,7 +12128,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>292</v>
@@ -12135,7 +12148,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>41518</v>
       </c>
@@ -12155,7 +12168,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>41548</v>
       </c>
@@ -12179,7 +12192,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>41579</v>
       </c>
@@ -12203,7 +12216,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>41609</v>
       </c>
@@ -12227,7 +12240,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>142</v>
@@ -12247,7 +12260,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="47" t="s">
         <v>297</v>
       </c>
@@ -12265,7 +12278,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>41640</v>
       </c>
@@ -12289,7 +12302,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>41671</v>
       </c>
@@ -12315,7 +12328,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>41699</v>
       </c>
@@ -12341,7 +12354,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>64</v>
@@ -12363,7 +12376,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>301</v>
@@ -12383,7 +12396,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="48"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>41730</v>
       </c>
@@ -12407,7 +12420,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>46</v>
@@ -12429,7 +12442,7 @@
         <v>41743</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>138</v>
@@ -12449,7 +12462,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>46</v>
@@ -12471,7 +12484,7 @@
         <v>41747</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>64</v>
@@ -12493,7 +12506,7 @@
         <v>41799</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>303</v>
@@ -12513,7 +12526,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="48"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>41760</v>
       </c>
@@ -12537,7 +12550,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>41791</v>
       </c>
@@ -12561,7 +12574,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>41821</v>
       </c>
@@ -12587,7 +12600,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>64</v>
@@ -12609,7 +12622,7 @@
         <v>41835</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>307</v>
@@ -12629,7 +12642,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>41852</v>
       </c>
@@ -12655,7 +12668,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>309</v>
@@ -12675,7 +12688,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="48"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>41883</v>
       </c>
@@ -12701,7 +12714,7 @@
         <v>41887</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>64</v>
@@ -12723,7 +12736,7 @@
         <v>41915</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>310</v>
@@ -12743,7 +12756,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="48"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>41913</v>
       </c>
@@ -12769,7 +12782,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>312</v>
@@ -12789,7 +12802,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>41944</v>
       </c>
@@ -12815,13 +12828,15 @@
         <v>41950</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C389" s="13"/>
-      <c r="D389" s="39"/>
+      <c r="D389" s="39">
+        <v>1</v>
+      </c>
       <c r="E389" s="9"/>
       <c r="F389" s="20"/>
       <c r="G389" s="13" t="str">
@@ -12835,7 +12850,7 @@
         <v>41950</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>313</v>
@@ -12857,7 +12872,7 @@
         <v>41978</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>41974</v>
       </c>
@@ -12881,7 +12896,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="47" t="s">
         <v>315</v>
       </c>
@@ -12899,7 +12914,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>42005</v>
       </c>
@@ -12923,7 +12938,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>213</v>
@@ -12943,7 +12958,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>42036</v>
       </c>
@@ -12969,7 +12984,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>64</v>
@@ -12991,7 +13006,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>317</v>
@@ -13011,7 +13026,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>42064</v>
       </c>
@@ -13035,7 +13050,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>318</v>
@@ -13055,7 +13070,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>42095</v>
       </c>
@@ -13081,7 +13096,7 @@
         <v>42102</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>67</v>
@@ -13101,7 +13116,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>320</v>
@@ -13121,7 +13136,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>42125</v>
       </c>
@@ -13145,7 +13160,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>42156</v>
       </c>
@@ -13171,7 +13186,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>324</v>
@@ -13191,7 +13206,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>42186</v>
       </c>
@@ -13215,7 +13230,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>42217</v>
       </c>
@@ -13241,7 +13256,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>327</v>
@@ -13261,7 +13276,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>42248</v>
       </c>
@@ -13287,7 +13302,7 @@
         <v>42268</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>328</v>
@@ -13307,7 +13322,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="48"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>42278</v>
       </c>
@@ -13333,7 +13348,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>329</v>
@@ -13353,7 +13368,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="48"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>42309</v>
       </c>
@@ -13379,7 +13394,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>62</v>
@@ -13401,7 +13416,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>46</v>
@@ -13423,7 +13438,7 @@
         <v>42328</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>331</v>
@@ -13443,7 +13458,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>42339</v>
       </c>
@@ -13467,7 +13482,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="47" t="s">
         <v>334</v>
       </c>
@@ -13485,7 +13500,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>42370</v>
       </c>
@@ -13509,7 +13524,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>335</v>
@@ -13529,7 +13544,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>42401</v>
       </c>
@@ -13555,7 +13570,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>337</v>
@@ -13575,7 +13590,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>42430</v>
       </c>
@@ -13599,7 +13614,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>42461</v>
       </c>
@@ -13625,7 +13640,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>340</v>
@@ -13645,7 +13660,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="48"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>42491</v>
       </c>
@@ -13671,7 +13686,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>333</v>
@@ -13691,7 +13706,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="48"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>42522</v>
       </c>
@@ -13717,7 +13732,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>67</v>
@@ -13737,7 +13752,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>46</v>
@@ -13759,7 +13774,7 @@
         <v>42549</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>342</v>
@@ -13779,7 +13794,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>42552</v>
       </c>
@@ -13805,7 +13820,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>344</v>
@@ -13825,7 +13840,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>42583</v>
       </c>
@@ -13851,7 +13866,7 @@
         <v>42608</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>345</v>
@@ -13871,7 +13886,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="48"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>42614</v>
       </c>
@@ -13895,7 +13910,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>42644</v>
       </c>
@@ -13921,7 +13936,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>347</v>
@@ -13941,7 +13956,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>42675</v>
       </c>
@@ -13967,7 +13982,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>54</v>
@@ -13989,7 +14004,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>351</v>
@@ -14009,7 +14024,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>42705</v>
       </c>
@@ -14033,7 +14048,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="47" t="s">
         <v>353</v>
       </c>
@@ -14051,7 +14066,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>42736</v>
       </c>
@@ -14077,7 +14092,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>67</v>
@@ -14097,7 +14112,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>354</v>
@@ -14117,7 +14132,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>42767</v>
       </c>
@@ -14141,7 +14156,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>42795</v>
       </c>
@@ -14167,7 +14182,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>46</v>
@@ -14189,7 +14204,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>46</v>
@@ -14211,7 +14226,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>358</v>
@@ -14231,7 +14246,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>42826</v>
       </c>
@@ -14255,7 +14270,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>46</v>
@@ -14275,7 +14290,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>360</v>
@@ -14295,7 +14310,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42856</v>
       </c>
@@ -14321,7 +14336,7 @@
         <v>42865</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>215</v>
@@ -14341,7 +14356,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="48"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>42887</v>
       </c>
@@ -14367,7 +14382,7 @@
         <v>42891</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>42917</v>
       </c>
@@ -14393,7 +14408,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>46</v>
@@ -14415,13 +14430,15 @@
         <v>42969</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C460" s="13"/>
-      <c r="D460" s="39"/>
+      <c r="D460" s="39">
+        <v>0.20800000000000002</v>
+      </c>
       <c r="E460" s="9"/>
       <c r="F460" s="20"/>
       <c r="G460" s="13" t="str">
@@ -14433,7 +14450,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>42948</v>
       </c>
@@ -14457,7 +14474,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>42979</v>
       </c>
@@ -14483,7 +14500,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>364</v>
@@ -14503,7 +14520,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43009</v>
       </c>
@@ -14529,7 +14546,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>62</v>
@@ -14551,7 +14568,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>366</v>
@@ -14567,14 +14584,11 @@
         <v/>
       </c>
       <c r="H466" s="39"/>
-      <c r="I466" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129</v>
-      </c>
+      <c r="I466" s="9"/>
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43040</v>
       </c>
@@ -14594,7 +14608,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43070</v>
       </c>
@@ -14620,7 +14634,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>46</v>
@@ -14642,7 +14656,7 @@
         <v>43076</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="47" t="s">
         <v>368</v>
       </c>
@@ -14660,7 +14674,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="48"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>43101</v>
       </c>
@@ -14684,7 +14698,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>43132</v>
       </c>
@@ -14704,7 +14718,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43160</v>
       </c>
@@ -14724,7 +14738,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43191</v>
       </c>
@@ -14748,7 +14762,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43221</v>
       </c>
@@ -14774,7 +14788,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>51</v>
@@ -14796,7 +14810,7 @@
         <v>43245</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>372</v>
@@ -14816,7 +14830,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43252</v>
       </c>
@@ -14840,7 +14854,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>43282</v>
       </c>
@@ -14866,7 +14880,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>46</v>
@@ -14888,7 +14902,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>375</v>
@@ -14908,7 +14922,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>43313</v>
       </c>
@@ -14934,7 +14948,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>51</v>
@@ -14956,7 +14970,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>76</v>
@@ -14976,7 +14990,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43344</v>
       </c>
@@ -14996,7 +15010,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="48"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>43374</v>
       </c>
@@ -15022,7 +15036,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>376</v>
@@ -15042,7 +15056,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="48"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>43405</v>
       </c>
@@ -15068,7 +15082,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>51</v>
@@ -15090,7 +15104,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>43435</v>
       </c>
@@ -15116,7 +15130,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>46</v>
@@ -15138,7 +15152,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>362</v>
@@ -15158,7 +15172,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="47" t="s">
         <v>377</v>
       </c>
@@ -15176,7 +15190,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>43466</v>
       </c>
@@ -15202,7 +15216,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>43497</v>
       </c>
@@ -15222,7 +15236,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>43525</v>
       </c>
@@ -15248,7 +15262,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>379</v>
@@ -15268,7 +15282,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="48"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>43556</v>
       </c>
@@ -15294,7 +15308,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>46</v>
@@ -15316,7 +15330,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>376</v>
@@ -15336,7 +15350,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>43586</v>
       </c>
@@ -15360,7 +15374,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>43617</v>
       </c>
@@ -15384,7 +15398,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>383</v>
@@ -15404,7 +15418,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>43647</v>
       </c>
@@ -15428,7 +15442,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>43678</v>
       </c>
@@ -15454,7 +15468,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>43709</v>
       </c>
@@ -15480,7 +15494,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>43739</v>
       </c>
@@ -15506,7 +15520,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>43770</v>
       </c>
@@ -15532,7 +15546,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>43800</v>
       </c>
@@ -15558,7 +15572,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>51</v>
@@ -15580,29 +15594,29 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C511" s="13"/>
-      <c r="D511" s="39">
-        <v>1</v>
-      </c>
+      <c r="D511" s="39"/>
       <c r="E511" s="9"/>
       <c r="F511" s="20"/>
       <c r="G511" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H511" s="39"/>
+      <c r="H511" s="39">
+        <v>1</v>
+      </c>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
       <c r="K511" s="48">
         <v>43825</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="47" t="s">
         <v>388</v>
       </c>
@@ -15620,7 +15634,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="48"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>43831</v>
       </c>
@@ -15644,7 +15658,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>390</v>
@@ -15664,7 +15678,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>43862</v>
       </c>
@@ -15684,7 +15698,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>43891</v>
       </c>
@@ -15704,7 +15718,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>43922</v>
       </c>
@@ -15724,7 +15738,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>43952</v>
       </c>
@@ -15744,7 +15758,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>43983</v>
       </c>
@@ -15764,7 +15778,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>44013</v>
       </c>
@@ -15784,7 +15798,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>44044</v>
       </c>
@@ -15804,7 +15818,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>44075</v>
       </c>
@@ -15828,7 +15842,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>54</v>
@@ -15850,7 +15864,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>44105</v>
       </c>
@@ -15870,7 +15884,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>44136</v>
       </c>
@@ -15890,7 +15904,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44166</v>
       </c>
@@ -15916,7 +15930,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>62</v>
@@ -15938,7 +15952,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>296</v>
@@ -15958,7 +15972,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="47" t="s">
         <v>396</v>
       </c>
@@ -15976,7 +15990,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>44197</v>
       </c>
@@ -15996,7 +16010,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>44228</v>
       </c>
@@ -16020,7 +16034,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>44256</v>
       </c>
@@ -16040,7 +16054,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44287</v>
       </c>
@@ -16064,7 +16078,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>44317</v>
       </c>
@@ -16084,7 +16098,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>44348</v>
       </c>
@@ -16104,7 +16118,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44378</v>
       </c>
@@ -16124,7 +16138,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>44409</v>
       </c>
@@ -16144,7 +16158,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44440</v>
       </c>
@@ -16164,7 +16178,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>44470</v>
       </c>
@@ -16188,7 +16202,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>51</v>
@@ -16210,7 +16224,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>51</v>
@@ -16230,7 +16244,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>46</v>
@@ -16252,7 +16266,7 @@
         <v>44522</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>62</v>
@@ -16274,7 +16288,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>44501</v>
       </c>
@@ -16294,7 +16308,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44531</v>
       </c>
@@ -16320,7 +16334,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="47" t="s">
         <v>402</v>
       </c>
@@ -16338,7 +16352,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44562</v>
       </c>
@@ -16358,7 +16372,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>44593</v>
       </c>
@@ -16378,7 +16392,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>44621</v>
       </c>
@@ -16398,7 +16412,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>44652</v>
       </c>
@@ -16418,7 +16432,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>44682</v>
       </c>
@@ -16442,7 +16456,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>62</v>
@@ -16464,7 +16478,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>67</v>
@@ -16484,7 +16498,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>62</v>
@@ -16506,7 +16520,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>44713</v>
       </c>
@@ -16532,7 +16546,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>54</v>
@@ -16554,7 +16568,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>44743</v>
       </c>
@@ -16574,7 +16588,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>44774</v>
       </c>
@@ -16600,7 +16614,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>44805</v>
       </c>
@@ -16626,7 +16640,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>44835</v>
       </c>
@@ -16652,7 +16666,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>44866</v>
       </c>
@@ -16678,7 +16692,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>44896</v>
       </c>
@@ -16704,7 +16718,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="47" t="s">
         <v>290</v>
       </c>
@@ -16722,7 +16736,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>44927</v>
       </c>
@@ -16746,7 +16760,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>44958</v>
       </c>
@@ -16766,7 +16780,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>44986</v>
       </c>
@@ -16792,7 +16806,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>67</v>
@@ -16812,7 +16826,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>45017</v>
       </c>
@@ -16838,7 +16852,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>46</v>
@@ -16860,11 +16874,13 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>45047</v>
       </c>
-      <c r="B570" s="20"/>
+      <c r="B570" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C570" s="13"/>
       <c r="D570" s="39"/>
       <c r="E570" s="9"/>
@@ -16873,12 +16889,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H570" s="39"/>
+      <c r="H570" s="39">
+        <v>1</v>
+      </c>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20"/>
-    </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K570" s="48">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>45078</v>
       </c>
@@ -16896,7 +16916,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>45108</v>
       </c>
@@ -16914,7 +16934,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>45139</v>
       </c>
@@ -16932,7 +16952,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>45170</v>
       </c>
@@ -16950,7 +16970,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>45200</v>
       </c>
@@ -16968,7 +16988,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>45231</v>
       </c>
@@ -16986,7 +17006,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>45261</v>
       </c>
@@ -17004,7 +17024,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>45292</v>
       </c>
@@ -17022,7 +17042,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>45323</v>
       </c>
@@ -17040,7 +17060,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>45352</v>
       </c>
@@ -17058,7 +17078,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17074,7 +17094,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -17090,7 +17110,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -17106,7 +17126,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -17122,7 +17142,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -17138,7 +17158,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -17154,7 +17174,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17170,7 +17190,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17186,7 +17206,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -17202,7 +17222,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17218,7 +17238,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17234,7 +17254,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17250,7 +17270,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17266,7 +17286,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17282,7 +17302,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17298,7 +17318,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17314,7 +17334,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17330,7 +17350,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17346,7 +17366,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17362,7 +17382,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17378,7 +17398,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17394,7 +17414,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17410,7 +17430,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17426,7 +17446,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17442,7 +17462,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17458,7 +17478,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17474,7 +17494,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17490,7 +17510,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17506,7 +17526,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17522,7 +17542,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17538,7 +17558,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17554,7 +17574,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17570,7 +17590,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17586,7 +17606,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17602,7 +17622,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17618,7 +17638,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17634,7 +17654,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17650,7 +17670,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17666,7 +17686,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17682,7 +17702,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17698,7 +17718,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17714,7 +17734,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17730,7 +17750,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17746,7 +17766,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17762,7 +17782,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="49"/>
       <c r="B625" s="15"/>
       <c r="C625" s="41"/>
@@ -17793,10 +17813,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17819,7 +17839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17827,21 +17847,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -17854,7 +17874,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17883,21 +17903,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>12.840999999999999</v>
       </c>
       <c r="B3" s="11">
         <v>17.5</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
       <c r="F3">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.429</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
@@ -17911,17 +17935,17 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17942,7 +17966,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17969,7 +17993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17995,7 +18019,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18021,7 +18045,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18047,7 +18071,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18073,7 +18097,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18099,7 +18123,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18125,7 +18149,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18151,7 +18175,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18171,7 +18195,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18191,7 +18215,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18211,7 +18235,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18232,7 +18256,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18253,7 +18277,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18274,7 +18298,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18295,7 +18319,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18316,7 +18340,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18337,7 +18361,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18358,7 +18382,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18379,7 +18403,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18400,7 +18424,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18421,7 +18445,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18442,7 +18466,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18463,7 +18487,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18484,7 +18508,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18505,7 +18529,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18526,7 +18550,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18547,7 +18571,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18568,7 +18592,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18589,7 +18613,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18610,7 +18634,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18631,7 +18655,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18640,7 +18664,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18649,7 +18673,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18658,7 +18682,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18667,7 +18691,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18676,7 +18700,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18685,7 +18709,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18694,7 +18718,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18703,7 +18727,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18712,7 +18736,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18721,7 +18745,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18730,7 +18754,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18739,7 +18763,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18748,7 +18772,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18757,7 +18781,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18766,7 +18790,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18775,7 +18799,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18784,7 +18808,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18793,7 +18817,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18802,7 +18826,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18811,7 +18835,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18820,7 +18844,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18829,7 +18853,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18838,7 +18862,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18847,7 +18871,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18856,7 +18880,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18865,7 +18889,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18874,7 +18898,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18883,7 +18907,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18892,7 +18916,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
